--- a/academycity/data/training/datasets/excel/tests/112_1_Fin_xray_20230608.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_1_Fin_xray_20230608.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">userid</t>
   </si>
   <si>
-    <t xml:space="preserve">platoon</t>
+    <t xml:space="preserve">Platoon</t>
   </si>
   <si>
     <t xml:space="preserve">full_name</t>
@@ -783,12 +783,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,4183 +976,4183 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="7" t="n">
         <v>14.01</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>12.02</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>13.47</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="G4" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>12.33</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>12.37</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G7" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>12.22</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>13.28</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G9" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>13.15</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>12.47</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>13.47</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>12.54</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>10.4</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="12"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>13.05</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>12.24</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>13.32</v>
       </c>
-      <c r="F19" s="15" t="n">
+      <c r="F19" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G19" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>11.42</v>
       </c>
-      <c r="F20" s="15" t="n">
+      <c r="F20" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G21" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>11.57</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>11.47</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="13" t="n">
         <v>10.49</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="13" t="n">
         <v>12.19</v>
       </c>
-      <c r="F25" s="15" t="n">
+      <c r="F25" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G25" s="16" t="n">
+      <c r="G25" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="13" t="n">
         <v>12.13</v>
       </c>
-      <c r="F26" s="15" t="n">
+      <c r="F26" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G26" s="16" t="n">
+      <c r="G26" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="13" t="n">
         <v>12.08</v>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F27" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G27" s="16" t="n">
+      <c r="G27" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="13" t="n">
         <v>13.23</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="F28" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="13" t="n">
         <v>12.12</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G29" s="16" t="n">
+      <c r="G29" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="13" t="n">
         <v>13.29</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G30" s="16" t="n">
+      <c r="G30" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="13" t="n">
         <v>12.32</v>
       </c>
-      <c r="F31" s="15" t="n">
+      <c r="F31" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G31" s="16" t="n">
+      <c r="G31" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="13" t="n">
+      <c r="D32" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="13" t="n">
         <v>11.25</v>
       </c>
-      <c r="F32" s="15" t="n">
+      <c r="F32" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="G32" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="13" t="n">
+      <c r="D33" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="13" t="n">
         <v>12.27</v>
       </c>
-      <c r="F33" s="15" t="n">
+      <c r="F33" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="G33" s="16" t="n">
+      <c r="G33" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="13" t="n">
         <v>13.22</v>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F34" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G34" s="16" t="n">
+      <c r="G34" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="13" t="n">
+      <c r="D35" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="13" t="n">
         <v>10.57</v>
       </c>
-      <c r="F35" s="15" t="n">
+      <c r="F35" s="14" t="n">
         <v>51</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="13" t="n">
         <v>12.13</v>
       </c>
-      <c r="F36" s="15" t="n">
+      <c r="F36" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G36" s="16" t="n">
+      <c r="G36" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="13" t="n">
+      <c r="D37" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="13" t="n">
         <v>13.27</v>
       </c>
-      <c r="F37" s="15" t="n">
+      <c r="F37" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="G37" s="16" t="n">
+      <c r="G37" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F38" s="15" t="n">
+      <c r="F38" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="G38" s="16" t="n">
+      <c r="G38" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D39" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="13" t="n">
         <v>13.34</v>
       </c>
-      <c r="F39" s="15" t="n">
+      <c r="F39" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G39" s="16" t="n">
+      <c r="G39" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="13" t="n">
+      <c r="D40" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="13" t="n">
         <v>13.33</v>
       </c>
-      <c r="F40" s="15" t="n">
+      <c r="F40" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G40" s="16" t="n">
+      <c r="G40" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="13" t="n">
         <v>12.04</v>
       </c>
-      <c r="F41" s="15" t="n">
+      <c r="F41" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G41" s="16" t="n">
+      <c r="G41" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="13" t="n">
         <v>12.23</v>
       </c>
-      <c r="F42" s="15" t="n">
+      <c r="F42" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="G42" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="13" t="n">
+      <c r="D43" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="13" t="n">
         <v>11.49</v>
       </c>
-      <c r="F43" s="15" t="n">
+      <c r="F43" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G43" s="16" t="n">
+      <c r="G43" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="13" t="n">
         <v>13.25</v>
       </c>
-      <c r="F44" s="15" t="n">
+      <c r="F44" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="G44" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="13" t="n">
         <v>11.53</v>
       </c>
-      <c r="F45" s="15" t="n">
+      <c r="F45" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G45" s="16" t="n">
+      <c r="G45" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E46" s="14" t="n">
+      <c r="E46" s="13" t="n">
         <v>10.4</v>
       </c>
-      <c r="F46" s="15" t="n">
+      <c r="F46" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G46" s="16" t="n">
+      <c r="G46" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="E47" s="14" t="n">
+      <c r="E47" s="13" t="n">
         <v>12.47</v>
       </c>
-      <c r="F47" s="15" t="n">
+      <c r="F47" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G47" s="16" t="n">
+      <c r="G47" s="15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B48" s="20" t="n">
+      <c r="B48" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E48" s="14" t="n">
+      <c r="E48" s="13" t="n">
         <v>13.14</v>
       </c>
-      <c r="F48" s="15" t="n">
+      <c r="F48" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G48" s="16" t="n">
+      <c r="G48" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B49" s="20" t="n">
+      <c r="B49" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="13" t="n">
+      <c r="D49" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="13" t="n">
         <v>11.55</v>
       </c>
-      <c r="F49" s="15" t="n">
+      <c r="F49" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="G49" s="16" t="n">
+      <c r="G49" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B50" s="20" t="n">
+      <c r="B50" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="13" t="n">
         <v>12.37</v>
       </c>
-      <c r="F50" s="15" t="n">
+      <c r="F50" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G50" s="16" t="n">
+      <c r="G50" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B51" s="20" t="n">
+      <c r="B51" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="13" t="n">
+      <c r="D51" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E51" s="13" t="n">
         <v>12.14</v>
       </c>
-      <c r="F51" s="15" t="n">
+      <c r="F51" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G51" s="16" t="n">
+      <c r="G51" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B52" s="20" t="n">
+      <c r="B52" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="13" t="n">
+      <c r="D52" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E52" s="14" t="n">
+      <c r="E52" s="13" t="n">
         <v>12.33</v>
       </c>
-      <c r="F52" s="15" t="n">
+      <c r="F52" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="G52" s="16" t="n">
+      <c r="G52" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B53" s="20" t="n">
+      <c r="B53" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="13" t="n">
+      <c r="D53" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E53" s="13" t="n">
         <v>13.16</v>
       </c>
-      <c r="F53" s="15" t="n">
+      <c r="F53" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G53" s="16" t="n">
+      <c r="G53" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B54" s="20" t="n">
+      <c r="B54" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="12"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B55" s="20" t="n">
+      <c r="B55" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="13" t="n">
+      <c r="D55" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E55" s="14" t="n">
+      <c r="E55" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F55" s="15" t="n">
+      <c r="F55" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G55" s="16" t="n">
+      <c r="G55" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B56" s="20" t="n">
+      <c r="B56" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="13" t="n">
+      <c r="D56" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E56" s="14" t="n">
+      <c r="E56" s="13" t="n">
         <v>13.42</v>
       </c>
-      <c r="F56" s="15" t="n">
+      <c r="F56" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="G56" s="16" t="n">
+      <c r="G56" s="15" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B57" s="20" t="n">
+      <c r="B57" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="13" t="n">
+      <c r="D57" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E57" s="14" t="n">
+      <c r="E57" s="13" t="n">
         <v>12.41</v>
       </c>
-      <c r="F57" s="15" t="n">
+      <c r="F57" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="G57" s="16" t="n">
+      <c r="G57" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B58" s="20" t="n">
+      <c r="B58" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E58" s="14" t="n">
+      <c r="E58" s="13" t="n">
         <v>11.51</v>
       </c>
-      <c r="F58" s="15" t="n">
+      <c r="F58" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G58" s="16" t="n">
+      <c r="G58" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B59" s="20" t="n">
+      <c r="B59" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="13" t="n">
+      <c r="D59" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E59" s="14" t="n">
+      <c r="E59" s="13" t="n">
         <v>13.04</v>
       </c>
-      <c r="F59" s="15" t="n">
+      <c r="F59" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G59" s="16" t="n">
+      <c r="G59" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B60" s="20" t="n">
+      <c r="B60" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="13" t="n">
         <v>12.57</v>
       </c>
-      <c r="F60" s="15" t="n">
+      <c r="F60" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G60" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B61" s="20" t="n">
+      <c r="B61" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="13" t="n">
+      <c r="D61" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E61" s="14" t="n">
+      <c r="E61" s="13" t="n">
         <v>13.27</v>
       </c>
-      <c r="F61" s="15" t="n">
+      <c r="F61" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G61" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B62" s="20" t="n">
+      <c r="B62" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="13" t="n">
+      <c r="D62" s="12" t="n">
         <v>61</v>
       </c>
-      <c r="E62" s="14" t="n">
+      <c r="E62" s="13" t="n">
         <v>13.42</v>
       </c>
-      <c r="F62" s="15" t="n">
+      <c r="F62" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G62" s="16" t="n">
+      <c r="G62" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B63" s="20" t="n">
+      <c r="B63" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="13" t="n">
+      <c r="D63" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E63" s="14" t="n">
+      <c r="E63" s="13" t="n">
         <v>12.05</v>
       </c>
-      <c r="F63" s="15" t="n">
+      <c r="F63" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G63" s="16" t="n">
+      <c r="G63" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B64" s="20" t="n">
+      <c r="B64" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="13" t="n">
+      <c r="D64" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E64" s="14" t="n">
+      <c r="E64" s="13" t="n">
         <v>12.07</v>
       </c>
-      <c r="F64" s="15" t="n">
+      <c r="F64" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G64" s="16" t="n">
+      <c r="G64" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B65" s="20" t="n">
+      <c r="B65" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="13" t="n">
+      <c r="D65" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E65" s="14" t="n">
+      <c r="E65" s="13" t="n">
         <v>13.07</v>
       </c>
-      <c r="F65" s="15" t="n">
+      <c r="F65" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G65" s="16" t="n">
+      <c r="G65" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B66" s="20" t="n">
+      <c r="B66" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="13" t="n">
+      <c r="D66" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E66" s="14" t="n">
+      <c r="E66" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F66" s="15" t="n">
+      <c r="F66" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G66" s="16" t="n">
+      <c r="G66" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B67" s="20" t="n">
+      <c r="B67" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="13" t="n">
+      <c r="D67" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E67" s="14" t="n">
+      <c r="E67" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F67" s="15" t="n">
+      <c r="F67" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G67" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B68" s="20" t="n">
+      <c r="B68" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="13" t="n">
+      <c r="D68" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E68" s="14" t="n">
+      <c r="E68" s="13" t="n">
         <v>13.24</v>
       </c>
-      <c r="F68" s="15" t="n">
+      <c r="F68" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G68" s="16" t="n">
+      <c r="G68" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B69" s="20" t="n">
+      <c r="B69" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="13" t="n">
+      <c r="D69" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E69" s="14" t="n">
+      <c r="E69" s="13" t="n">
         <v>11.22</v>
       </c>
-      <c r="F69" s="15" t="n">
+      <c r="F69" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G69" s="16" t="n">
+      <c r="G69" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B70" s="20" t="n">
+      <c r="B70" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="13" t="n">
+      <c r="D70" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E70" s="14" t="n">
+      <c r="E70" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F70" s="15" t="n">
+      <c r="F70" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G70" s="16" t="n">
+      <c r="G70" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B71" s="20" t="n">
+      <c r="B71" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="13" t="n">
+      <c r="D71" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E71" s="14" t="n">
+      <c r="E71" s="13" t="n">
         <v>12.53</v>
       </c>
-      <c r="F71" s="15" t="n">
+      <c r="F71" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G71" s="16" t="n">
+      <c r="G71" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B72" s="20" t="n">
+      <c r="B72" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="13" t="n">
+      <c r="D72" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E72" s="14" t="n">
+      <c r="E72" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F72" s="15" t="n">
+      <c r="F72" s="14" t="n">
         <v>31</v>
       </c>
-      <c r="G72" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B73" s="20" t="n">
+      <c r="B73" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="13" t="n">
+      <c r="D73" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E73" s="14" t="n">
+      <c r="E73" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F73" s="15" t="n">
+      <c r="F73" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="G73" s="16" t="n">
+      <c r="G73" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B74" s="20" t="n">
+      <c r="B74" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="13" t="n">
+      <c r="D74" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E74" s="14" t="n">
+      <c r="E74" s="13" t="n">
         <v>13.05</v>
       </c>
-      <c r="F74" s="15" t="n">
+      <c r="F74" s="14" t="n">
         <v>32</v>
       </c>
-      <c r="G74" s="16" t="n">
+      <c r="G74" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B75" s="20" t="n">
+      <c r="B75" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="13" t="n">
+      <c r="D75" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E75" s="14" t="n">
+      <c r="E75" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F75" s="15" t="n">
+      <c r="F75" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G75" s="16" t="n">
+      <c r="G75" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B76" s="20" t="n">
+      <c r="B76" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="13" t="n">
+      <c r="D76" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E76" s="14" t="n">
+      <c r="E76" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F76" s="15" t="n">
+      <c r="F76" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G76" s="16" t="n">
+      <c r="G76" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B77" s="20" t="n">
+      <c r="B77" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="13" t="n">
+      <c r="D77" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E77" s="14" t="n">
+      <c r="E77" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F77" s="15" t="n">
+      <c r="F77" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="G77" s="16" t="n">
+      <c r="G77" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B78" s="20" t="n">
+      <c r="B78" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="13" t="n">
+      <c r="D78" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E78" s="14" t="n">
+      <c r="E78" s="13" t="n">
         <v>11.14</v>
       </c>
-      <c r="F78" s="15" t="n">
+      <c r="F78" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G78" s="16" t="n">
+      <c r="G78" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B79" s="20" t="n">
+      <c r="B79" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="13" t="n">
+      <c r="D79" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E79" s="14" t="n">
+      <c r="E79" s="13" t="n">
         <v>13.14</v>
       </c>
-      <c r="F79" s="15" t="n">
+      <c r="F79" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="G79" s="16" t="n">
+      <c r="G79" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B80" s="20" t="n">
+      <c r="B80" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="13" t="n">
+      <c r="D80" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E80" s="14" t="n">
+      <c r="E80" s="13" t="n">
         <v>12.05</v>
       </c>
-      <c r="F80" s="15" t="n">
+      <c r="F80" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="G80" s="16" t="n">
+      <c r="G80" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B81" s="20" t="n">
+      <c r="B81" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="12"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B82" s="20" t="n">
+      <c r="B82" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="13" t="n">
+      <c r="D82" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E82" s="14" t="n">
+      <c r="E82" s="13" t="n">
         <v>11.45</v>
       </c>
-      <c r="F82" s="15" t="n">
+      <c r="F82" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G82" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B83" s="20" t="n">
+      <c r="B83" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="13" t="n">
+      <c r="D83" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E83" s="14" t="n">
+      <c r="E83" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F83" s="15" t="n">
+      <c r="F83" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G83" s="16" t="n">
+      <c r="G83" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B84" s="20" t="n">
+      <c r="B84" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="13" t="n">
+      <c r="D84" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E84" s="14" t="n">
+      <c r="E84" s="13" t="n">
         <v>12.21</v>
       </c>
-      <c r="F84" s="15" t="n">
+      <c r="F84" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G84" s="16" t="n">
+      <c r="G84" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B85" s="20" t="n">
+      <c r="B85" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="13" t="n">
+      <c r="D85" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E85" s="14" t="n">
+      <c r="E85" s="13" t="n">
         <v>13.42</v>
       </c>
-      <c r="F85" s="15" t="n">
+      <c r="F85" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G85" s="16" t="n">
+      <c r="G85" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B86" s="20" t="n">
+      <c r="B86" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="13" t="n">
+      <c r="D86" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E86" s="14" t="n">
+      <c r="E86" s="13" t="n">
         <v>13.02</v>
       </c>
-      <c r="F86" s="15" t="n">
+      <c r="F86" s="14" t="n">
         <v>32</v>
       </c>
-      <c r="G86" s="16" t="n">
+      <c r="G86" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B87" s="20" t="n">
+      <c r="B87" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="13" t="n">
+      <c r="D87" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E87" s="14" t="n">
+      <c r="E87" s="13" t="n">
         <v>12.41</v>
       </c>
-      <c r="F87" s="15" t="n">
+      <c r="F87" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G87" s="16" t="n">
+      <c r="G87" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B88" s="20" t="n">
+      <c r="B88" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="13" t="n">
+      <c r="D88" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="18"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B89" s="20" t="n">
+      <c r="B89" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="13" t="n">
+      <c r="D89" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E89" s="14" t="n">
+      <c r="E89" s="13" t="n">
         <v>13.12</v>
       </c>
-      <c r="F89" s="15" t="n">
+      <c r="F89" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G89" s="16" t="n">
+      <c r="G89" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B90" s="20" t="n">
+      <c r="B90" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="13" t="n">
+      <c r="D90" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E90" s="14" t="n">
+      <c r="E90" s="13" t="n">
         <v>14.01</v>
       </c>
-      <c r="F90" s="15" t="n">
+      <c r="F90" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G90" s="16" t="n">
+      <c r="G90" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B91" s="20" t="n">
+      <c r="B91" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="13" t="n">
+      <c r="D91" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E91" s="14" t="n">
+      <c r="E91" s="13" t="n">
         <v>12.41</v>
       </c>
-      <c r="F91" s="15" t="n">
+      <c r="F91" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G91" s="16"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B92" s="20" t="n">
+      <c r="B92" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="13" t="n">
+      <c r="D92" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E92" s="14" t="n">
+      <c r="E92" s="13" t="n">
         <v>12.41</v>
       </c>
-      <c r="F92" s="15" t="n">
+      <c r="F92" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G92" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G92" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B93" s="20" t="n">
+      <c r="B93" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="13" t="n">
+      <c r="D93" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E93" s="14" t="n">
+      <c r="E93" s="13" t="n">
         <v>12.41</v>
       </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="16" t="n">
+      <c r="F93" s="14"/>
+      <c r="G93" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B94" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C94" s="25" t="s">
+      <c r="B94" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="13" t="n">
+      <c r="D94" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="E94" s="14" t="n">
+      <c r="E94" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F94" s="15" t="n">
+      <c r="F94" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G94" s="16" t="n">
+      <c r="G94" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B95" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C95" s="25" t="s">
+      <c r="B95" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="13" t="n">
+      <c r="D95" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E95" s="14" t="n">
+      <c r="E95" s="13" t="n">
         <v>12.36</v>
       </c>
-      <c r="F95" s="15" t="n">
+      <c r="F95" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G95" s="16" t="n">
+      <c r="G95" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B96" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="13" t="n">
+      <c r="D96" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E96" s="14" t="n">
+      <c r="E96" s="13" t="n">
         <v>12.16</v>
       </c>
-      <c r="F96" s="15" t="n">
+      <c r="F96" s="14" t="n">
         <v>66</v>
       </c>
-      <c r="G96" s="16" t="n">
+      <c r="G96" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B97" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" s="25" t="s">
+      <c r="B97" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="13" t="n">
+      <c r="D97" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="E97" s="14" t="n">
+      <c r="E97" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F97" s="15" t="n">
+      <c r="F97" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G97" s="16" t="n">
+      <c r="G97" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B98" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="13" t="n">
+      <c r="D98" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="E98" s="14" t="n">
+      <c r="E98" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F98" s="15" t="n">
+      <c r="F98" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G98" s="16" t="n">
+      <c r="G98" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B99" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C99" s="25" t="s">
+      <c r="B99" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="13" t="n">
+      <c r="D99" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E99" s="14" t="n">
+      <c r="E99" s="13" t="n">
         <v>11.15</v>
       </c>
-      <c r="F99" s="15" t="n">
+      <c r="F99" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G99" s="16" t="n">
+      <c r="G99" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B100" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" s="25" t="s">
+      <c r="B100" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="13" t="n">
+      <c r="D100" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E100" s="14" t="n">
+      <c r="E100" s="13" t="n">
         <v>12.33</v>
       </c>
-      <c r="F100" s="15" t="n">
+      <c r="F100" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G100" s="16" t="n">
+      <c r="G100" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B101" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C101" s="25" t="s">
+      <c r="B101" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="13" t="n">
+      <c r="D101" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E101" s="14" t="n">
+      <c r="E101" s="13" t="n">
         <v>11.44</v>
       </c>
-      <c r="F101" s="15" t="n">
+      <c r="F101" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G101" s="16" t="n">
+      <c r="G101" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B102" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C102" s="25" t="s">
+      <c r="B102" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="13" t="n">
+      <c r="D102" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E102" s="14" t="n">
+      <c r="E102" s="13" t="n">
         <v>12.58</v>
       </c>
-      <c r="F102" s="15" t="n">
+      <c r="F102" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="G102" s="16" t="n">
+      <c r="G102" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B103" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" s="25" t="s">
+      <c r="B103" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="13" t="n">
+      <c r="D103" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E103" s="14" t="n">
+      <c r="E103" s="13" t="n">
         <v>12.33</v>
       </c>
-      <c r="F103" s="15" t="n">
+      <c r="F103" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G103" s="16" t="n">
+      <c r="G103" s="15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B104" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" s="25" t="s">
+      <c r="B104" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="13" t="n">
+      <c r="D104" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E104" s="14" t="n">
+      <c r="E104" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F104" s="15" t="n">
+      <c r="F104" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="G104" s="16" t="n">
+      <c r="G104" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B105" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" s="25" t="s">
+      <c r="B105" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="13" t="n">
+      <c r="D105" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E105" s="14" t="n">
+      <c r="E105" s="13" t="n">
         <v>11.13</v>
       </c>
-      <c r="F105" s="15" t="n">
+      <c r="F105" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G105" s="16" t="n">
+      <c r="G105" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B106" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C106" s="25" t="s">
+      <c r="B106" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="13" t="n">
+      <c r="D106" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E106" s="14" t="n">
+      <c r="E106" s="13" t="n">
         <v>12.49</v>
       </c>
-      <c r="F106" s="15" t="n">
+      <c r="F106" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G106" s="16" t="n">
+      <c r="G106" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B107" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C107" s="25" t="s">
+      <c r="B107" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="13" t="n">
+      <c r="D107" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E107" s="14" t="n">
+      <c r="E107" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F107" s="15" t="n">
+      <c r="F107" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G107" s="16" t="n">
+      <c r="G107" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B108" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C108" s="25" t="s">
+      <c r="B108" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="13" t="n">
+      <c r="D108" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E108" s="14" t="n">
+      <c r="E108" s="13" t="n">
         <v>13.48</v>
       </c>
-      <c r="F108" s="15" t="n">
+      <c r="F108" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G108" s="16" t="n">
+      <c r="G108" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B109" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C109" s="25" t="s">
+      <c r="B109" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="13" t="n">
+      <c r="D109" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E109" s="14" t="n">
+      <c r="E109" s="13" t="n">
         <v>13.48</v>
       </c>
-      <c r="F109" s="15" t="n">
+      <c r="F109" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G109" s="16" t="n">
+      <c r="G109" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B110" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C110" s="25" t="s">
+      <c r="B110" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="13" t="n">
+      <c r="D110" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E110" s="14" t="n">
+      <c r="E110" s="13" t="n">
         <v>11.03</v>
       </c>
-      <c r="F110" s="15" t="n">
+      <c r="F110" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="G110" s="16" t="n">
+      <c r="G110" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B111" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C111" s="25" t="s">
+      <c r="B111" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="13" t="n">
+      <c r="D111" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E111" s="14" t="n">
+      <c r="E111" s="13" t="n">
         <v>12.39</v>
       </c>
-      <c r="F111" s="15" t="n">
+      <c r="F111" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G111" s="16" t="n">
+      <c r="G111" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B112" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C112" s="25" t="s">
+      <c r="B112" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="13" t="n">
+      <c r="D112" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E112" s="14" t="n">
+      <c r="E112" s="13" t="n">
         <v>13.21</v>
       </c>
-      <c r="F112" s="15" t="n">
+      <c r="F112" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G112" s="16" t="n">
+      <c r="G112" s="15" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B113" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C113" s="25" t="s">
+      <c r="B113" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D113" s="13" t="n">
+      <c r="D113" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E113" s="14" t="n">
+      <c r="E113" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F113" s="15" t="n">
+      <c r="F113" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G113" s="16" t="n">
+      <c r="G113" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B114" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C114" s="25" t="s">
+      <c r="B114" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D114" s="13" t="n">
+      <c r="D114" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E114" s="14" t="n">
+      <c r="E114" s="13" t="n">
         <v>13.33</v>
       </c>
-      <c r="F114" s="15" t="n">
+      <c r="F114" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="G114" s="16" t="n">
+      <c r="G114" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B115" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C115" s="26" t="s">
+      <c r="B115" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="16"/>
-    </row>
-    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="12"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B116" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C116" s="25" t="s">
+      <c r="B116" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="13" t="n">
+      <c r="D116" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E116" s="14" t="n">
+      <c r="E116" s="13" t="n">
         <v>11.21</v>
       </c>
-      <c r="F116" s="15" t="n">
+      <c r="F116" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="G116" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G116" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B117" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C117" s="25" t="s">
+      <c r="B117" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="13" t="n">
+      <c r="D117" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E117" s="14" t="n">
+      <c r="E117" s="13" t="n">
         <v>13.48</v>
       </c>
-      <c r="F117" s="15" t="n">
+      <c r="F117" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G117" s="16" t="n">
+      <c r="G117" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B118" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" s="25" t="s">
+      <c r="B118" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D118" s="13" t="n">
+      <c r="D118" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E118" s="14" t="n">
+      <c r="E118" s="13" t="n">
         <v>13.07</v>
       </c>
-      <c r="F118" s="15" t="n">
+      <c r="F118" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="G118" s="16" t="n">
+      <c r="G118" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B119" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C119" s="25" t="s">
+      <c r="B119" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="13" t="n">
+      <c r="D119" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E119" s="14" t="n">
+      <c r="E119" s="13" t="n">
         <v>13.4</v>
       </c>
-      <c r="F119" s="15" t="n">
+      <c r="F119" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G119" s="16" t="n">
+      <c r="G119" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B120" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C120" s="25" t="s">
+      <c r="B120" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D120" s="13" t="n">
+      <c r="D120" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E120" s="14" t="n">
+      <c r="E120" s="13" t="n">
         <v>11.36</v>
       </c>
-      <c r="F120" s="15" t="n">
+      <c r="F120" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G120" s="16" t="n">
+      <c r="G120" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B121" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C121" s="25" t="s">
+      <c r="B121" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D121" s="13" t="n">
+      <c r="D121" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E121" s="14" t="n">
+      <c r="E121" s="13" t="n">
         <v>11.29</v>
       </c>
-      <c r="F121" s="15" t="n">
+      <c r="F121" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G121" s="16" t="n">
+      <c r="G121" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B122" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C122" s="25" t="s">
+      <c r="B122" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="13" t="n">
+      <c r="D122" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E122" s="14" t="n">
+      <c r="E122" s="13" t="n">
         <v>13.48</v>
       </c>
-      <c r="F122" s="15" t="n">
+      <c r="F122" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G122" s="16" t="n">
+      <c r="G122" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B123" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C123" s="25" t="s">
+      <c r="B123" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D123" s="13" t="n">
+      <c r="D123" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E123" s="14" t="n">
+      <c r="E123" s="13" t="n">
         <v>13.06</v>
       </c>
-      <c r="F123" s="15" t="n">
+      <c r="F123" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G123" s="16" t="n">
+      <c r="G123" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B124" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C124" s="25" t="s">
+      <c r="B124" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="13" t="n">
+      <c r="D124" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E124" s="14" t="n">
+      <c r="E124" s="13" t="n">
         <v>12.2</v>
       </c>
-      <c r="F124" s="15" t="n">
+      <c r="F124" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G124" s="16" t="n">
+      <c r="G124" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B125" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C125" s="25" t="s">
+      <c r="B125" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="13" t="n">
+      <c r="D125" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E125" s="14" t="n">
+      <c r="E125" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F125" s="15" t="n">
+      <c r="F125" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G125" s="16" t="n">
+      <c r="G125" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B126" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C126" s="25" t="s">
+      <c r="B126" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D126" s="13" t="n">
+      <c r="D126" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="E126" s="14" t="n">
+      <c r="E126" s="13" t="n">
         <v>12.55</v>
       </c>
-      <c r="F126" s="15" t="n">
+      <c r="F126" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G126" s="16" t="n">
+      <c r="G126" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B127" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C127" s="25" t="s">
+      <c r="B127" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D127" s="13" t="n">
+      <c r="D127" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="E127" s="14" t="n">
+      <c r="E127" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F127" s="15" t="n">
+      <c r="F127" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G127" s="16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G127" s="15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B128" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C128" s="25" t="s">
+      <c r="B128" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D128" s="13" t="n">
+      <c r="D128" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="E128" s="14" t="n">
+      <c r="E128" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F128" s="15" t="n">
+      <c r="F128" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="G128" s="16" t="n">
+      <c r="G128" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B129" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C129" s="25" t="s">
+      <c r="B129" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D129" s="13" t="n">
+      <c r="D129" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E129" s="14" t="n">
+      <c r="E129" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F129" s="15" t="n">
+      <c r="F129" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G129" s="16" t="n">
+      <c r="G129" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B130" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C130" s="25" t="s">
+      <c r="B130" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D130" s="13" t="n">
+      <c r="D130" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E130" s="14" t="n">
+      <c r="E130" s="13" t="n">
         <v>13.09</v>
       </c>
-      <c r="F130" s="15" t="n">
+      <c r="F130" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="G130" s="16" t="n">
+      <c r="G130" s="15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B131" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C131" s="25" t="s">
+      <c r="B131" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D131" s="13" t="n">
+      <c r="D131" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="E131" s="14" t="n">
+      <c r="E131" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F131" s="15" t="n">
+      <c r="F131" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="G131" s="16" t="n">
+      <c r="G131" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B132" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C132" s="26" t="s">
+      <c r="B132" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="13" t="n">
+      <c r="D132" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="15" t="n">
+      <c r="E132" s="18"/>
+      <c r="F132" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G132" s="16"/>
-    </row>
-    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G132" s="15"/>
+    </row>
+    <row r="133" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B133" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C133" s="25" t="s">
+      <c r="B133" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D133" s="13" t="n">
+      <c r="D133" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E133" s="14" t="n">
+      <c r="E133" s="13" t="n">
         <v>12.05</v>
       </c>
-      <c r="F133" s="15" t="n">
+      <c r="F133" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G133" s="16" t="n">
+      <c r="G133" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B134" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C134" s="25" t="s">
+      <c r="B134" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D134" s="13" t="n">
+      <c r="D134" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E134" s="14" t="n">
+      <c r="E134" s="13" t="n">
         <v>12.2</v>
       </c>
-      <c r="F134" s="15" t="n">
+      <c r="F134" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="G134" s="16" t="n">
+      <c r="G134" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B135" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C135" s="25" t="s">
+      <c r="B135" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D135" s="13" t="n">
+      <c r="D135" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E135" s="14" t="n">
+      <c r="E135" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F135" s="15" t="n">
+      <c r="F135" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G135" s="16" t="n">
+      <c r="G135" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B136" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C136" s="25" t="s">
+      <c r="B136" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="13" t="n">
+      <c r="D136" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E136" s="14" t="n">
+      <c r="E136" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F136" s="15" t="n">
+      <c r="F136" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G136" s="16"/>
-    </row>
-    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B137" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C137" s="25" t="s">
+      <c r="B137" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D137" s="13" t="n">
+      <c r="D137" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E137" s="14" t="n">
+      <c r="E137" s="13" t="n">
         <v>13.08</v>
       </c>
-      <c r="F137" s="15" t="n">
+      <c r="F137" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="G137" s="16" t="n">
+      <c r="G137" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B138" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C138" s="25" t="s">
+      <c r="B138" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D138" s="13" t="n">
+      <c r="D138" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E138" s="14" t="n">
+      <c r="E138" s="13" t="n">
         <v>11.44</v>
       </c>
-      <c r="F138" s="15" t="n">
+      <c r="F138" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="G138" s="16" t="n">
+      <c r="G138" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B139" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C139" s="25" t="s">
+      <c r="B139" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="13" t="n">
+      <c r="D139" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="E139" s="14" t="n">
+      <c r="E139" s="13" t="n">
         <v>13.55</v>
       </c>
-      <c r="F139" s="15" t="n">
+      <c r="F139" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G139" s="16" t="n">
+      <c r="G139" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B140" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C140" s="26" t="s">
+      <c r="B140" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="16"/>
-    </row>
-    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="12"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="15"/>
+    </row>
+    <row r="141" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B141" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C141" s="28" t="s">
+      <c r="B141" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C141" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D141" s="13" t="n">
+      <c r="D141" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E141" s="14" t="n">
+      <c r="E141" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F141" s="15" t="n">
+      <c r="F141" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G141" s="16" t="n">
+      <c r="G141" s="15" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B142" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C142" s="28" t="s">
+      <c r="B142" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C142" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D142" s="13" t="n">
+      <c r="D142" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E142" s="14" t="n">
+      <c r="E142" s="13" t="n">
         <v>14.3</v>
       </c>
-      <c r="F142" s="15" t="n">
+      <c r="F142" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G142" s="16" t="n">
+      <c r="G142" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B143" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C143" s="28" t="s">
+      <c r="B143" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D143" s="13" t="n">
+      <c r="D143" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E143" s="14" t="n">
+      <c r="E143" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="16"/>
-    </row>
-    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="14"/>
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B144" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C144" s="28" t="s">
+      <c r="B144" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C144" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D144" s="13" t="n">
+      <c r="D144" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E144" s="14" t="n">
+      <c r="E144" s="13" t="n">
         <v>12.18</v>
       </c>
-      <c r="F144" s="15" t="n">
+      <c r="F144" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G144" s="16" t="n">
+      <c r="G144" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B145" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C145" s="28" t="s">
+      <c r="B145" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D145" s="13" t="n">
+      <c r="D145" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E145" s="14" t="n">
+      <c r="E145" s="13" t="n">
         <v>13.35</v>
       </c>
-      <c r="F145" s="15" t="n">
+      <c r="F145" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G145" s="16" t="n">
+      <c r="G145" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B146" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C146" s="28" t="s">
+      <c r="B146" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D146" s="13" t="n">
+      <c r="D146" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E146" s="14" t="n">
+      <c r="E146" s="13" t="n">
         <v>12.36</v>
       </c>
-      <c r="F146" s="15" t="n">
+      <c r="F146" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="G146" s="16" t="n">
+      <c r="G146" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B147" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C147" s="28" t="s">
+      <c r="B147" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D147" s="13" t="n">
+      <c r="D147" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="E147" s="14" t="n">
+      <c r="E147" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F147" s="15" t="n">
+      <c r="F147" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G147" s="16" t="n">
+      <c r="G147" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B148" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C148" s="28" t="s">
+      <c r="B148" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="13" t="n">
+      <c r="D148" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="E148" s="14" t="n">
+      <c r="E148" s="13" t="n">
         <v>13.1</v>
       </c>
-      <c r="F148" s="15" t="n">
+      <c r="F148" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="G148" s="16" t="n">
+      <c r="G148" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B149" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C149" s="28" t="s">
+      <c r="B149" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D149" s="13" t="n">
+      <c r="D149" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E149" s="14" t="n">
+      <c r="E149" s="13" t="n">
         <v>12.18</v>
       </c>
-      <c r="F149" s="15" t="n">
+      <c r="F149" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G149" s="16" t="n">
+      <c r="G149" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B150" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C150" s="28" t="s">
+      <c r="B150" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D150" s="13" t="n">
+      <c r="D150" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E150" s="14" t="n">
+      <c r="E150" s="13" t="n">
         <v>14.3</v>
       </c>
-      <c r="F150" s="15" t="n">
+      <c r="F150" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="G150" s="16" t="n">
+      <c r="G150" s="15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B151" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C151" s="28" t="s">
+      <c r="B151" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="13" t="n">
+      <c r="D151" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="E151" s="14" t="n">
+      <c r="E151" s="13" t="n">
         <v>13.17</v>
       </c>
-      <c r="F151" s="15" t="n">
+      <c r="F151" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="G151" s="16" t="n">
+      <c r="G151" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B152" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C152" s="28" t="s">
+      <c r="B152" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C152" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D152" s="13" t="n">
+      <c r="D152" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="E152" s="14" t="n">
+      <c r="E152" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F152" s="15" t="n">
+      <c r="F152" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G152" s="16" t="n">
+      <c r="G152" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B153" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C153" s="28" t="s">
+      <c r="B153" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D153" s="13" t="n">
+      <c r="D153" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E153" s="14" t="n">
+      <c r="E153" s="13" t="n">
         <v>14.3</v>
       </c>
-      <c r="F153" s="15" t="n">
+      <c r="F153" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G153" s="16" t="n">
+      <c r="G153" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B154" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C154" s="28" t="s">
+      <c r="B154" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C154" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D154" s="13" t="n">
+      <c r="D154" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E154" s="14" t="n">
+      <c r="E154" s="13" t="n">
         <v>11.3</v>
       </c>
-      <c r="F154" s="15" t="n">
+      <c r="F154" s="14" t="n">
         <v>52</v>
       </c>
-      <c r="G154" s="16" t="n">
+      <c r="G154" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B155" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C155" s="28" t="s">
+      <c r="B155" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="13" t="n">
+      <c r="D155" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E155" s="14" t="n">
+      <c r="E155" s="13" t="n">
         <v>13.2</v>
       </c>
-      <c r="F155" s="15" t="n">
+      <c r="F155" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G155" s="16" t="n">
+      <c r="G155" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B156" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C156" s="28" t="s">
+      <c r="B156" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D156" s="13" t="n">
+      <c r="D156" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E156" s="14" t="n">
+      <c r="E156" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="F156" s="15" t="n">
+      <c r="F156" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G156" s="16" t="n">
+      <c r="G156" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B157" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C157" s="28" t="s">
+      <c r="B157" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D157" s="13" t="n">
+      <c r="D157" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E157" s="14" t="n">
+      <c r="E157" s="13" t="n">
         <v>13.58</v>
       </c>
-      <c r="F157" s="15" t="n">
+      <c r="F157" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G157" s="16" t="n">
+      <c r="G157" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B158" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C158" s="28" t="s">
+      <c r="B158" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D158" s="13" t="n">
+      <c r="D158" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E158" s="14" t="n">
+      <c r="E158" s="13" t="n">
         <v>12.43</v>
       </c>
-      <c r="F158" s="15" t="n">
+      <c r="F158" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G158" s="16" t="n">
+      <c r="G158" s="15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B159" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C159" s="28" t="s">
+      <c r="B159" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D159" s="13" t="n">
+      <c r="D159" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="E159" s="14" t="n">
+      <c r="E159" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F159" s="15" t="n">
+      <c r="F159" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G159" s="16" t="n">
+      <c r="G159" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B160" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C160" s="28" t="s">
+      <c r="B160" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D160" s="13" t="n">
+      <c r="D160" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E160" s="14" t="n">
+      <c r="E160" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F160" s="15" t="n">
+      <c r="F160" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G160" s="16" t="n">
+      <c r="G160" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B161" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C161" s="28" t="s">
+      <c r="B161" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D161" s="13" t="n">
+      <c r="D161" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="E161" s="14" t="n">
+      <c r="E161" s="13" t="n">
         <v>14.3</v>
       </c>
-      <c r="F161" s="15" t="n">
+      <c r="F161" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G161" s="16" t="n">
+      <c r="G161" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B162" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C162" s="28" t="s">
+      <c r="B162" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D162" s="13" t="n">
+      <c r="D162" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E162" s="14" t="n">
+      <c r="E162" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F162" s="15" t="n">
+      <c r="F162" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="G162" s="16" t="n">
+      <c r="G162" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B163" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C163" s="28" t="s">
+      <c r="B163" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D163" s="13" t="n">
+      <c r="D163" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E163" s="14" t="n">
+      <c r="E163" s="13" t="n">
         <v>13.45</v>
       </c>
-      <c r="F163" s="15" t="n">
+      <c r="F163" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G163" s="16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B164" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C164" s="28" t="s">
+      <c r="B164" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D164" s="13" t="n">
+      <c r="D164" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E164" s="14" t="n">
+      <c r="E164" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F164" s="15" t="n">
+      <c r="F164" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G164" s="16" t="n">
+      <c r="G164" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B165" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C165" s="28" t="s">
+      <c r="B165" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D165" s="13" t="n">
+      <c r="D165" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E165" s="14" t="n">
+      <c r="E165" s="13" t="n">
         <v>14.3</v>
       </c>
-      <c r="F165" s="15" t="n">
+      <c r="F165" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G165" s="16" t="n">
+      <c r="G165" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B166" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C166" s="28" t="s">
+      <c r="B166" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C166" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D166" s="13" t="n">
+      <c r="D166" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="E166" s="14" t="n">
+      <c r="E166" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F166" s="15" t="n">
+      <c r="F166" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G166" s="16" t="n">
+      <c r="G166" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B167" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C167" s="28" t="s">
+      <c r="B167" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D167" s="13" t="n">
+      <c r="D167" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E167" s="14" t="n">
+      <c r="E167" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="F167" s="15" t="n">
+      <c r="F167" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="G167" s="16" t="n">
+      <c r="G167" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B168" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C168" s="28" t="s">
+      <c r="B168" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D168" s="13" t="n">
+      <c r="D168" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E168" s="14" t="n">
+      <c r="E168" s="13" t="n">
         <v>11.3</v>
       </c>
-      <c r="F168" s="15" t="n">
+      <c r="F168" s="14" t="n">
         <v>53</v>
       </c>
-      <c r="G168" s="16" t="n">
+      <c r="G168" s="15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B169" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C169" s="28" t="s">
+      <c r="B169" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D169" s="13" t="n">
+      <c r="D169" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E169" s="14" t="n">
+      <c r="E169" s="13" t="n">
         <v>13.3</v>
       </c>
-      <c r="F169" s="15" t="n">
+      <c r="F169" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="G169" s="16" t="n">
+      <c r="G169" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B170" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C170" s="28" t="s">
+      <c r="B170" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D170" s="13" t="n">
+      <c r="D170" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="E170" s="14" t="n">
+      <c r="E170" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F170" s="15" t="n">
+      <c r="F170" s="14" t="n">
         <v>52</v>
       </c>
-      <c r="G170" s="16" t="n">
+      <c r="G170" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B171" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C171" s="28" t="s">
+      <c r="B171" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D171" s="13" t="n">
+      <c r="D171" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E171" s="14" t="n">
+      <c r="E171" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F171" s="15" t="n">
+      <c r="F171" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="G171" s="16" t="n">
+      <c r="G171" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B172" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C172" s="28" t="s">
+      <c r="B172" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D172" s="13" t="n">
+      <c r="D172" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E172" s="14" t="n">
+      <c r="E172" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F172" s="15" t="n">
+      <c r="F172" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G172" s="16" t="n">
+      <c r="G172" s="15" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B173" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C173" s="28" t="s">
+      <c r="B173" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D173" s="13" t="n">
+      <c r="D173" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E173" s="14" t="n">
+      <c r="E173" s="13" t="n">
         <v>13.58</v>
       </c>
-      <c r="F173" s="15" t="n">
+      <c r="F173" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="G173" s="16" t="n">
+      <c r="G173" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B174" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C174" s="28" t="s">
+      <c r="B174" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D174" s="13" t="n">
+      <c r="D174" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="E174" s="14" t="n">
+      <c r="E174" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F174" s="15" t="n">
+      <c r="F174" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="G174" s="16" t="n">
+      <c r="G174" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B175" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C175" s="28" t="s">
+      <c r="B175" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D175" s="13"/>
-      <c r="E175" s="14" t="n">
+      <c r="D175" s="12"/>
+      <c r="E175" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F175" s="15" t="n">
+      <c r="F175" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="G175" s="16" t="n">
+      <c r="G175" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B176" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C176" s="28" t="s">
+      <c r="B176" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D176" s="13" t="n">
+      <c r="D176" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E176" s="14" t="n">
+      <c r="E176" s="13" t="n">
         <v>13.5</v>
       </c>
-      <c r="F176" s="15" t="n">
+      <c r="F176" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G176" s="16" t="n">
+      <c r="G176" s="15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B177" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C177" s="28" t="s">
+      <c r="B177" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="13" t="n">
+      <c r="D177" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E177" s="14" t="n">
+      <c r="E177" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="F177" s="15" t="n">
+      <c r="F177" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="G177" s="16" t="n">
+      <c r="G177" s="15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B178" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C178" s="28" t="s">
+      <c r="B178" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="13" t="n">
+      <c r="D178" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="E178" s="14" t="n">
+      <c r="E178" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F178" s="15" t="n">
+      <c r="F178" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G178" s="16" t="n">
+      <c r="G178" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B179" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C179" s="28" t="s">
+      <c r="B179" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D179" s="13" t="n">
+      <c r="D179" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="E179" s="14" t="n">
+      <c r="E179" s="13" t="n">
         <v>12.5</v>
       </c>
-      <c r="F179" s="15" t="n">
+      <c r="F179" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="G179" s="16" t="n">
+      <c r="G179" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B180" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C180" s="28" t="s">
+      <c r="B180" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D180" s="13" t="n">
+      <c r="D180" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E180" s="14" t="n">
+      <c r="E180" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="F180" s="15" t="n">
+      <c r="F180" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="G180" s="16" t="n">
+      <c r="G180" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B181" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C181" s="28" t="s">
+      <c r="B181" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C181" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D181" s="13" t="n">
+      <c r="D181" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="E181" s="14" t="n">
+      <c r="E181" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="F181" s="15" t="n">
+      <c r="F181" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="G181" s="16" t="n">
+      <c r="G181" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B182" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C182" s="28" t="s">
+      <c r="B182" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D182" s="13" t="n">
+      <c r="D182" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E182" s="14" t="n">
+      <c r="E182" s="13" t="n">
         <v>12.45</v>
       </c>
-      <c r="F182" s="15" t="n">
+      <c r="F182" s="14" t="n">
         <v>55</v>
       </c>
-      <c r="G182" s="16" t="n">
+      <c r="G182" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B183" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C183" s="28" t="s">
+      <c r="B183" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D183" s="13" t="n">
+      <c r="D183" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E183" s="14" t="n">
+      <c r="E183" s="13" t="n">
         <v>13.4</v>
       </c>
-      <c r="F183" s="15" t="n">
+      <c r="F183" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="G183" s="16" t="n">
+      <c r="G183" s="15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B184" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C184" s="28" t="s">
+      <c r="B184" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D184" s="13" t="n">
+      <c r="D184" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E184" s="14" t="n">
+      <c r="E184" s="13" t="n">
         <v>14.3</v>
       </c>
-      <c r="F184" s="15" t="n">
+      <c r="F184" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="G184" s="16" t="n">
+      <c r="G184" s="15" t="n">
         <v>6</v>
       </c>
     </row>

--- a/academycity/data/training/datasets/excel/tests/112_1_Fin_xray_20230608.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_1_Fin_xray_20230608.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$G$184</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -139,7 +142,7 @@
     <t xml:space="preserve">MUSUNGAYI MUTAMBA</t>
   </si>
   <si>
-    <t xml:space="preserve">MWAKA-NDJAO</t>
+    <t xml:space="preserve">MWAKA NDJAO</t>
   </si>
   <si>
     <t xml:space="preserve">Mwantambwe Ishalilollo</t>
@@ -154,7 +157,7 @@
     <t xml:space="preserve">NYEMBO KIBONGE</t>
   </si>
   <si>
-    <t xml:space="preserve">OTAPANYA-MANYA</t>
+    <t xml:space="preserve">OTAPANYA MANYA</t>
   </si>
   <si>
     <t xml:space="preserve">Sangoli Tundu Thierry</t>
@@ -268,16 +271,16 @@
     <t xml:space="preserve">MBENGA TSHIMBU</t>
   </si>
   <si>
-    <t xml:space="preserve">MONGA-SELEMANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOWANGI-MOWANGI</t>
+    <t xml:space="preserve">MONGA SELEMANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOWANGI MOWANGI</t>
   </si>
   <si>
     <t xml:space="preserve">MPIANA NSHIIMBI MICHEL</t>
   </si>
   <si>
-    <t xml:space="preserve">MPONGO-TSHIBANGU</t>
+    <t xml:space="preserve">MPONGO TSHIBANGU</t>
   </si>
   <si>
     <t xml:space="preserve">MULUEME NTAMILANDU GLODY</t>
@@ -544,7 +547,7 @@
     <t xml:space="preserve">KALALA NTUMBA JOHN</t>
   </si>
   <si>
-    <t xml:space="preserve">KALALA NYAMABU WILLY</t>
+    <t xml:space="preserve">TSHITOKA NKITA PASCAL</t>
   </si>
   <si>
     <t xml:space="preserve">KALAMBAYI MOSHILA JETRO</t>
@@ -599,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -657,8 +660,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,7 +696,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
@@ -725,8 +735,14 @@
         <bgColor rgb="FFD2F1DA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -757,6 +773,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -783,8 +806,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,6 +923,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -933,7 +964,7 @@
       <rgbColor rgb="FFFAD9D6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -968,44 +999,50 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1013,1095 +1050,1236 @@
       <c r="A2" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>14.01</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="10" t="n">
         <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>112001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="14" t="n">
         <v>12.02</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>112042</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="14" t="n">
         <v>13.47</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="16" t="n">
         <v>12</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>112012</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <v>12.33</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="15" t="n">
         <v>46</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>112003</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="13" t="n">
         <v>58</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>12.37</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="16" t="n">
         <v>12</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>112031</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="16" t="n">
         <v>4</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>112002</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="14" t="n">
         <v>12.22</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>112008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="14" t="n">
         <v>13.28</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="16" t="n">
         <v>3</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>112011</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="14" t="n">
         <v>13.15</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="16" t="n">
         <v>8</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>112030</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="14" t="n">
         <v>12.47</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="15" t="n">
         <v>46</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>112044</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="14" t="n">
         <v>13.47</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>112045</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="14" t="n">
         <v>12.54</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="16" t="n">
         <v>9</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>112023</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="14" t="n">
         <v>10.4</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="G14" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>112014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="0" t="n">
+        <v>112006</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>112016</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="14" t="n">
         <v>13.05</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="16" t="n">
         <v>9</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>112024</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="14" t="n">
         <v>12.24</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G18" s="15" t="n">
+      <c r="G18" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>112040</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="14" t="n">
         <v>13.32</v>
       </c>
-      <c r="F19" s="14" t="n">
+      <c r="F19" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G19" s="15" t="n">
+      <c r="G19" s="16" t="n">
         <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>112032</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="14" t="n">
         <v>11.42</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F20" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G20" s="15" t="n">
+      <c r="G20" s="16" t="n">
         <v>6</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>112039</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G21" s="15" t="n">
+      <c r="G21" s="16" t="n">
         <v>3</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>112028</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="14" t="n">
         <v>11.57</v>
       </c>
-      <c r="F22" s="14" t="n">
+      <c r="F22" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="16" t="n">
         <v>2</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>112015</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="14" t="n">
         <v>11.47</v>
       </c>
-      <c r="F23" s="14" t="n">
+      <c r="F23" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G23" s="15" t="n">
+      <c r="G23" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>112026</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="14" t="n">
         <v>10.49</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="15" t="n">
         <v>46</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="16" t="n">
         <v>5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>112027</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="14" t="n">
         <v>12.19</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F25" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G25" s="15" t="n">
+      <c r="G25" s="16" t="n">
         <v>8</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>112034</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="14" t="n">
         <v>12.13</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G26" s="15" t="n">
+      <c r="G26" s="16" t="n">
         <v>13</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>112010</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="14" t="n">
         <v>12.08</v>
       </c>
-      <c r="F27" s="14" t="n">
+      <c r="F27" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="16" t="n">
         <v>12</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>112041</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B28" s="10" t="n">
+      <c r="B28" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="14" t="n">
         <v>13.23</v>
       </c>
-      <c r="F28" s="14" t="n">
+      <c r="F28" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="G28" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>112004</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B29" s="10" t="n">
+      <c r="B29" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="14" t="n">
         <v>12.12</v>
       </c>
-      <c r="F29" s="14" t="n">
+      <c r="F29" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G29" s="15" t="n">
+      <c r="G29" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>112021</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="14" t="n">
         <v>13.29</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G30" s="15" t="n">
+      <c r="G30" s="16" t="n">
         <v>5</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>112033</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E31" s="13" t="n">
+      <c r="E31" s="14" t="n">
         <v>12.32</v>
       </c>
-      <c r="F31" s="14" t="n">
+      <c r="F31" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G31" s="15" t="n">
+      <c r="G31" s="16" t="n">
         <v>7</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>112007</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="14" t="n">
         <v>11.25</v>
       </c>
-      <c r="F32" s="14" t="n">
+      <c r="F32" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="G32" s="15" t="n">
+      <c r="G32" s="16" t="n">
         <v>4</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>112009</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E33" s="13" t="n">
+      <c r="E33" s="14" t="n">
         <v>12.27</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="G33" s="15" t="n">
+      <c r="G33" s="16" t="n">
         <v>7</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>112018</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B34" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="14" t="n">
         <v>13.22</v>
       </c>
-      <c r="F34" s="14" t="n">
+      <c r="F34" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G34" s="15" t="n">
+      <c r="G34" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>112019</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B35" s="10" t="n">
+      <c r="B35" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E35" s="13" t="n">
+      <c r="E35" s="14" t="n">
         <v>10.57</v>
       </c>
-      <c r="F35" s="14" t="n">
+      <c r="F35" s="15" t="n">
         <v>51</v>
       </c>
-      <c r="G35" s="15" t="n">
+      <c r="G35" s="16" t="n">
         <v>14</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>112005</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E36" s="13" t="n">
+      <c r="E36" s="14" t="n">
         <v>12.13</v>
       </c>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G36" s="15" t="n">
+      <c r="G36" s="16" t="n">
         <v>7</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>112017</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B37" s="10" t="n">
+      <c r="B37" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E37" s="13" t="n">
+      <c r="E37" s="14" t="n">
         <v>13.27</v>
       </c>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="G37" s="15" t="n">
+      <c r="G37" s="16" t="n">
         <v>5</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>112029</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B38" s="10" t="n">
+      <c r="B38" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F38" s="14" t="n">
+      <c r="F38" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="G38" s="15" t="n">
+      <c r="G38" s="16" t="n">
         <v>8</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>112036</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E39" s="13" t="n">
+      <c r="E39" s="14" t="n">
         <v>13.34</v>
       </c>
-      <c r="F39" s="14" t="n">
+      <c r="F39" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G39" s="15" t="n">
+      <c r="G39" s="16" t="n">
         <v>7</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>112043</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B40" s="10" t="n">
+      <c r="B40" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E40" s="13" t="n">
+      <c r="E40" s="14" t="n">
         <v>13.33</v>
       </c>
-      <c r="F40" s="14" t="n">
+      <c r="F40" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G40" s="15" t="n">
+      <c r="G40" s="16" t="n">
         <v>6</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>112035</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B41" s="10" t="n">
+      <c r="B41" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E41" s="13" t="n">
+      <c r="E41" s="14" t="n">
         <v>12.04</v>
       </c>
-      <c r="F41" s="14" t="n">
+      <c r="F41" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G41" s="15" t="n">
+      <c r="G41" s="16" t="n">
         <v>12</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>112013</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B42" s="10" t="n">
+      <c r="B42" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="14" t="n">
         <v>12.23</v>
       </c>
-      <c r="F42" s="14" t="n">
+      <c r="F42" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="G42" s="15" t="n">
+      <c r="G42" s="16" t="n">
         <v>3</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>112046</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B43" s="10" t="n">
+      <c r="B43" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E43" s="13" t="n">
+      <c r="E43" s="14" t="n">
         <v>11.49</v>
       </c>
-      <c r="F43" s="14" t="n">
+      <c r="F43" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="G43" s="16" t="n">
         <v>5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>112037</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B44" s="10" t="n">
+      <c r="B44" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="14" t="n">
         <v>13.25</v>
       </c>
-      <c r="F44" s="14" t="n">
+      <c r="F44" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="G44" s="15" t="n">
+      <c r="G44" s="16" t="n">
         <v>11</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>112020</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B45" s="10" t="n">
+      <c r="B45" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E45" s="13" t="n">
+      <c r="E45" s="14" t="n">
         <v>11.53</v>
       </c>
-      <c r="F45" s="14" t="n">
+      <c r="F45" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G45" s="15" t="n">
+      <c r="G45" s="16" t="n">
         <v>6</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>112025</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B46" s="10" t="n">
+      <c r="B46" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="14" t="n">
         <v>10.4</v>
       </c>
-      <c r="F46" s="14" t="n">
+      <c r="F46" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G46" s="15" t="n">
+      <c r="G46" s="16" t="n">
         <v>10</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>112022</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B47" s="10" t="n">
+      <c r="B47" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="E47" s="13" t="n">
+      <c r="E47" s="14" t="n">
         <v>12.47</v>
       </c>
-      <c r="F47" s="14" t="n">
+      <c r="F47" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G47" s="15" t="n">
+      <c r="G47" s="16" t="n">
         <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>112038</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B48" s="19" t="n">
+      <c r="B48" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="14" t="n">
         <v>13.14</v>
       </c>
-      <c r="F48" s="14" t="n">
+      <c r="F48" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G48" s="15" t="n">
+      <c r="G48" s="16" t="n">
         <v>6</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>112047</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B49" s="19" t="n">
+      <c r="B49" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E49" s="13" t="n">
+      <c r="E49" s="14" t="n">
         <v>11.55</v>
       </c>
-      <c r="F49" s="14" t="n">
+      <c r="F49" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="G49" s="15" t="n">
+      <c r="G49" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2109,22 +2287,22 @@
       <c r="A50" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B50" s="19" t="n">
+      <c r="B50" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E50" s="13" t="n">
+      <c r="E50" s="14" t="n">
         <v>12.37</v>
       </c>
-      <c r="F50" s="14" t="n">
+      <c r="F50" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G50" s="15" t="n">
+      <c r="G50" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2132,22 +2310,22 @@
       <c r="A51" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B51" s="19" t="n">
+      <c r="B51" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="E51" s="13" t="n">
+      <c r="E51" s="14" t="n">
         <v>12.14</v>
       </c>
-      <c r="F51" s="14" t="n">
+      <c r="F51" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G51" s="15" t="n">
+      <c r="G51" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2155,22 +2333,22 @@
       <c r="A52" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B52" s="19" t="n">
+      <c r="B52" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E52" s="13" t="n">
+      <c r="E52" s="14" t="n">
         <v>12.33</v>
       </c>
-      <c r="F52" s="14" t="n">
+      <c r="F52" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="G52" s="15" t="n">
+      <c r="G52" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2178,22 +2356,22 @@
       <c r="A53" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B53" s="19" t="n">
+      <c r="B53" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E53" s="13" t="n">
+      <c r="E53" s="14" t="n">
         <v>13.16</v>
       </c>
-      <c r="F53" s="14" t="n">
+      <c r="F53" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G53" s="15" t="n">
+      <c r="G53" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2201,37 +2379,37 @@
       <c r="A54" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B54" s="19" t="n">
+      <c r="B54" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B55" s="19" t="n">
+      <c r="B55" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E55" s="13" t="n">
+      <c r="E55" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F55" s="14" t="n">
+      <c r="F55" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G55" s="15" t="n">
+      <c r="G55" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2239,22 +2417,22 @@
       <c r="A56" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B56" s="19" t="n">
+      <c r="B56" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E56" s="13" t="n">
+      <c r="E56" s="14" t="n">
         <v>13.42</v>
       </c>
-      <c r="F56" s="14" t="n">
+      <c r="F56" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="G56" s="15" t="n">
+      <c r="G56" s="16" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2262,22 +2440,22 @@
       <c r="A57" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B57" s="19" t="n">
+      <c r="B57" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E57" s="13" t="n">
+      <c r="E57" s="14" t="n">
         <v>12.41</v>
       </c>
-      <c r="F57" s="14" t="n">
+      <c r="F57" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="G57" s="15" t="n">
+      <c r="G57" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2285,22 +2463,22 @@
       <c r="A58" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B58" s="19" t="n">
+      <c r="B58" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="E58" s="13" t="n">
+      <c r="E58" s="14" t="n">
         <v>11.51</v>
       </c>
-      <c r="F58" s="14" t="n">
+      <c r="F58" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G58" s="15" t="n">
+      <c r="G58" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2308,22 +2486,22 @@
       <c r="A59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B59" s="19" t="n">
+      <c r="B59" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="12" t="n">
+      <c r="D59" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E59" s="13" t="n">
+      <c r="E59" s="14" t="n">
         <v>13.04</v>
       </c>
-      <c r="F59" s="14" t="n">
+      <c r="F59" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G59" s="15" t="n">
+      <c r="G59" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2331,22 +2509,22 @@
       <c r="A60" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B60" s="19" t="n">
+      <c r="B60" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="12" t="n">
+      <c r="D60" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E60" s="13" t="n">
+      <c r="E60" s="14" t="n">
         <v>12.57</v>
       </c>
-      <c r="F60" s="14" t="n">
+      <c r="F60" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G60" s="15" t="n">
+      <c r="G60" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2354,22 +2532,22 @@
       <c r="A61" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B61" s="19" t="n">
+      <c r="B61" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="12" t="n">
+      <c r="D61" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E61" s="13" t="n">
+      <c r="E61" s="14" t="n">
         <v>13.27</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G61" s="15" t="n">
+      <c r="G61" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2377,22 +2555,22 @@
       <c r="A62" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B62" s="19" t="n">
+      <c r="B62" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="12" t="n">
+      <c r="D62" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="E62" s="13" t="n">
+      <c r="E62" s="14" t="n">
         <v>13.42</v>
       </c>
-      <c r="F62" s="14" t="n">
+      <c r="F62" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G62" s="15" t="n">
+      <c r="G62" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2400,22 +2578,22 @@
       <c r="A63" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B63" s="19" t="n">
+      <c r="B63" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="12" t="n">
+      <c r="D63" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E63" s="13" t="n">
+      <c r="E63" s="14" t="n">
         <v>12.05</v>
       </c>
-      <c r="F63" s="14" t="n">
+      <c r="F63" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G63" s="15" t="n">
+      <c r="G63" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2423,22 +2601,22 @@
       <c r="A64" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B64" s="19" t="n">
+      <c r="B64" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="12" t="n">
+      <c r="D64" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E64" s="13" t="n">
+      <c r="E64" s="14" t="n">
         <v>12.07</v>
       </c>
-      <c r="F64" s="14" t="n">
+      <c r="F64" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G64" s="15" t="n">
+      <c r="G64" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2446,22 +2624,22 @@
       <c r="A65" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B65" s="19" t="n">
+      <c r="B65" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="12" t="n">
+      <c r="D65" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E65" s="13" t="n">
+      <c r="E65" s="14" t="n">
         <v>13.07</v>
       </c>
-      <c r="F65" s="14" t="n">
+      <c r="F65" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G65" s="15" t="n">
+      <c r="G65" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2469,22 +2647,22 @@
       <c r="A66" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B66" s="19" t="n">
+      <c r="B66" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="12" t="n">
+      <c r="D66" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E66" s="13" t="n">
+      <c r="E66" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F66" s="14" t="n">
+      <c r="F66" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G66" s="15" t="n">
+      <c r="G66" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2492,22 +2670,22 @@
       <c r="A67" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B67" s="19" t="n">
+      <c r="B67" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="12" t="n">
+      <c r="D67" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E67" s="13" t="n">
+      <c r="E67" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F67" s="14" t="n">
+      <c r="F67" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G67" s="15" t="n">
+      <c r="G67" s="16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2515,22 +2693,22 @@
       <c r="A68" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B68" s="19" t="n">
+      <c r="B68" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="12" t="n">
+      <c r="D68" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E68" s="13" t="n">
+      <c r="E68" s="14" t="n">
         <v>13.24</v>
       </c>
-      <c r="F68" s="14" t="n">
+      <c r="F68" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G68" s="15" t="n">
+      <c r="G68" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2538,22 +2716,22 @@
       <c r="A69" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B69" s="19" t="n">
+      <c r="B69" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="12" t="n">
+      <c r="D69" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="E69" s="13" t="n">
+      <c r="E69" s="14" t="n">
         <v>11.22</v>
       </c>
-      <c r="F69" s="14" t="n">
+      <c r="F69" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G69" s="15" t="n">
+      <c r="G69" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2561,22 +2739,22 @@
       <c r="A70" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B70" s="19" t="n">
+      <c r="B70" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="12" t="n">
+      <c r="D70" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E70" s="13" t="n">
+      <c r="E70" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F70" s="14" t="n">
+      <c r="F70" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G70" s="15" t="n">
+      <c r="G70" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2584,22 +2762,22 @@
       <c r="A71" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B71" s="19" t="n">
+      <c r="B71" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="12" t="n">
+      <c r="D71" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E71" s="13" t="n">
+      <c r="E71" s="14" t="n">
         <v>12.53</v>
       </c>
-      <c r="F71" s="14" t="n">
+      <c r="F71" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G71" s="15" t="n">
+      <c r="G71" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2607,22 +2785,22 @@
       <c r="A72" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B72" s="19" t="n">
+      <c r="B72" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="12" t="n">
+      <c r="D72" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E72" s="13" t="n">
+      <c r="E72" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F72" s="14" t="n">
+      <c r="F72" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="G72" s="15" t="n">
+      <c r="G72" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2630,22 +2808,22 @@
       <c r="A73" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B73" s="19" t="n">
+      <c r="B73" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="12" t="n">
+      <c r="D73" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E73" s="13" t="n">
+      <c r="E73" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F73" s="14" t="n">
+      <c r="F73" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="G73" s="15" t="n">
+      <c r="G73" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2653,22 +2831,22 @@
       <c r="A74" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B74" s="19" t="n">
+      <c r="B74" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="12" t="n">
+      <c r="D74" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E74" s="13" t="n">
+      <c r="E74" s="14" t="n">
         <v>13.05</v>
       </c>
-      <c r="F74" s="14" t="n">
+      <c r="F74" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="G74" s="15" t="n">
+      <c r="G74" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2676,22 +2854,22 @@
       <c r="A75" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B75" s="19" t="n">
+      <c r="B75" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="12" t="n">
+      <c r="D75" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E75" s="13" t="n">
+      <c r="E75" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F75" s="14" t="n">
+      <c r="F75" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G75" s="15" t="n">
+      <c r="G75" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2699,22 +2877,22 @@
       <c r="A76" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B76" s="19" t="n">
+      <c r="B76" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="12" t="n">
+      <c r="D76" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E76" s="13" t="n">
+      <c r="E76" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F76" s="14" t="n">
+      <c r="F76" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G76" s="15" t="n">
+      <c r="G76" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2722,22 +2900,22 @@
       <c r="A77" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B77" s="19" t="n">
+      <c r="B77" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="12" t="n">
+      <c r="D77" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E77" s="13" t="n">
+      <c r="E77" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F77" s="14" t="n">
+      <c r="F77" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="G77" s="15" t="n">
+      <c r="G77" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2745,22 +2923,22 @@
       <c r="A78" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B78" s="19" t="n">
+      <c r="B78" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="12" t="n">
+      <c r="D78" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="E78" s="13" t="n">
+      <c r="E78" s="14" t="n">
         <v>11.14</v>
       </c>
-      <c r="F78" s="14" t="n">
+      <c r="F78" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G78" s="15" t="n">
+      <c r="G78" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2768,22 +2946,22 @@
       <c r="A79" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B79" s="19" t="n">
+      <c r="B79" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="12" t="n">
+      <c r="D79" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E79" s="13" t="n">
+      <c r="E79" s="14" t="n">
         <v>13.14</v>
       </c>
-      <c r="F79" s="14" t="n">
+      <c r="F79" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="G79" s="15" t="n">
+      <c r="G79" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2791,22 +2969,22 @@
       <c r="A80" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B80" s="19" t="n">
+      <c r="B80" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="12" t="n">
+      <c r="D80" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E80" s="13" t="n">
+      <c r="E80" s="14" t="n">
         <v>12.05</v>
       </c>
-      <c r="F80" s="14" t="n">
+      <c r="F80" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="G80" s="15" t="n">
+      <c r="G80" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2814,37 +2992,37 @@
       <c r="A81" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B81" s="19" t="n">
+      <c r="B81" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="15"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B82" s="19" t="n">
+      <c r="B82" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="12" t="n">
+      <c r="D82" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E82" s="13" t="n">
+      <c r="E82" s="14" t="n">
         <v>11.45</v>
       </c>
-      <c r="F82" s="14" t="n">
+      <c r="F82" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G82" s="15" t="n">
+      <c r="G82" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2852,22 +3030,22 @@
       <c r="A83" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B83" s="19" t="n">
+      <c r="B83" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="12" t="n">
+      <c r="D83" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E83" s="13" t="n">
+      <c r="E83" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F83" s="14" t="n">
+      <c r="F83" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G83" s="15" t="n">
+      <c r="G83" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2875,22 +3053,22 @@
       <c r="A84" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B84" s="19" t="n">
+      <c r="B84" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="12" t="n">
+      <c r="D84" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E84" s="13" t="n">
+      <c r="E84" s="14" t="n">
         <v>12.21</v>
       </c>
-      <c r="F84" s="14" t="n">
+      <c r="F84" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G84" s="15" t="n">
+      <c r="G84" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2898,22 +3076,22 @@
       <c r="A85" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B85" s="19" t="n">
+      <c r="B85" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="12" t="n">
+      <c r="D85" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E85" s="13" t="n">
+      <c r="E85" s="14" t="n">
         <v>13.42</v>
       </c>
-      <c r="F85" s="14" t="n">
+      <c r="F85" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G85" s="15" t="n">
+      <c r="G85" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2921,22 +3099,22 @@
       <c r="A86" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B86" s="19" t="n">
+      <c r="B86" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="12" t="n">
+      <c r="D86" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E86" s="13" t="n">
+      <c r="E86" s="14" t="n">
         <v>13.02</v>
       </c>
-      <c r="F86" s="14" t="n">
+      <c r="F86" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="G86" s="15" t="n">
+      <c r="G86" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2944,22 +3122,22 @@
       <c r="A87" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B87" s="19" t="n">
+      <c r="B87" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="12" t="n">
+      <c r="D87" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E87" s="13" t="n">
+      <c r="E87" s="14" t="n">
         <v>12.41</v>
       </c>
-      <c r="F87" s="14" t="n">
+      <c r="F87" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G87" s="15" t="n">
+      <c r="G87" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2967,39 +3145,39 @@
       <c r="A88" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B88" s="19" t="n">
+      <c r="B88" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="12" t="n">
+      <c r="D88" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B89" s="19" t="n">
+      <c r="B89" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="12" t="n">
+      <c r="D89" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E89" s="13" t="n">
+      <c r="E89" s="14" t="n">
         <v>13.12</v>
       </c>
-      <c r="F89" s="14" t="n">
+      <c r="F89" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G89" s="15" t="n">
+      <c r="G89" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3007,22 +3185,22 @@
       <c r="A90" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B90" s="19" t="n">
+      <c r="B90" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="12" t="n">
+      <c r="D90" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E90" s="13" t="n">
+      <c r="E90" s="14" t="n">
         <v>14.01</v>
       </c>
-      <c r="F90" s="14" t="n">
+      <c r="F90" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G90" s="15" t="n">
+      <c r="G90" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3030,43 +3208,43 @@
       <c r="A91" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B91" s="19" t="n">
+      <c r="B91" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="12" t="n">
+      <c r="D91" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E91" s="13" t="n">
+      <c r="E91" s="14" t="n">
         <v>12.41</v>
       </c>
-      <c r="F91" s="14" t="n">
+      <c r="F91" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G91" s="15"/>
+      <c r="G91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B92" s="19" t="n">
+      <c r="B92" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="12" t="n">
+      <c r="D92" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E92" s="13" t="n">
+      <c r="E92" s="14" t="n">
         <v>12.41</v>
       </c>
-      <c r="F92" s="14" t="n">
+      <c r="F92" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G92" s="15" t="n">
+      <c r="G92" s="16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3074,20 +3252,20 @@
       <c r="A93" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B93" s="19" t="n">
+      <c r="B93" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="12" t="n">
+      <c r="D93" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E93" s="13" t="n">
+      <c r="E93" s="14" t="n">
         <v>12.41</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="15" t="n">
+      <c r="F93" s="15"/>
+      <c r="G93" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3095,22 +3273,22 @@
       <c r="A94" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B94" s="23" t="n">
+      <c r="B94" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="12" t="n">
+      <c r="D94" s="13" t="n">
         <v>59</v>
       </c>
-      <c r="E94" s="13" t="n">
+      <c r="E94" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F94" s="14" t="n">
+      <c r="F94" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G94" s="15" t="n">
+      <c r="G94" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3118,22 +3296,22 @@
       <c r="A95" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B95" s="23" t="n">
+      <c r="B95" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="12" t="n">
+      <c r="D95" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E95" s="13" t="n">
+      <c r="E95" s="14" t="n">
         <v>12.36</v>
       </c>
-      <c r="F95" s="14" t="n">
+      <c r="F95" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G95" s="15" t="n">
+      <c r="G95" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3141,22 +3319,22 @@
       <c r="A96" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B96" s="23" t="n">
+      <c r="B96" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="12" t="n">
+      <c r="D96" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E96" s="13" t="n">
+      <c r="E96" s="14" t="n">
         <v>12.16</v>
       </c>
-      <c r="F96" s="14" t="n">
+      <c r="F96" s="15" t="n">
         <v>66</v>
       </c>
-      <c r="G96" s="15" t="n">
+      <c r="G96" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3164,22 +3342,22 @@
       <c r="A97" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B97" s="23" t="n">
+      <c r="B97" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="12" t="n">
+      <c r="D97" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="E97" s="13" t="n">
+      <c r="E97" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F97" s="14" t="n">
+      <c r="F97" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G97" s="15" t="n">
+      <c r="G97" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3187,22 +3365,22 @@
       <c r="A98" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B98" s="23" t="n">
+      <c r="B98" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="12" t="n">
+      <c r="D98" s="13" t="n">
         <v>59</v>
       </c>
-      <c r="E98" s="13" t="n">
+      <c r="E98" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F98" s="14" t="n">
+      <c r="F98" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G98" s="15" t="n">
+      <c r="G98" s="16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3210,22 +3388,22 @@
       <c r="A99" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B99" s="23" t="n">
+      <c r="B99" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="12" t="n">
+      <c r="D99" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E99" s="13" t="n">
+      <c r="E99" s="14" t="n">
         <v>11.15</v>
       </c>
-      <c r="F99" s="14" t="n">
+      <c r="F99" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G99" s="15" t="n">
+      <c r="G99" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3233,22 +3411,22 @@
       <c r="A100" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B100" s="23" t="n">
+      <c r="B100" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="12" t="n">
+      <c r="D100" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E100" s="13" t="n">
+      <c r="E100" s="14" t="n">
         <v>12.33</v>
       </c>
-      <c r="F100" s="14" t="n">
+      <c r="F100" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G100" s="15" t="n">
+      <c r="G100" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3256,22 +3434,22 @@
       <c r="A101" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B101" s="23" t="n">
+      <c r="B101" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="12" t="n">
+      <c r="D101" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E101" s="13" t="n">
+      <c r="E101" s="14" t="n">
         <v>11.44</v>
       </c>
-      <c r="F101" s="14" t="n">
+      <c r="F101" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G101" s="15" t="n">
+      <c r="G101" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3279,22 +3457,22 @@
       <c r="A102" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B102" s="23" t="n">
+      <c r="B102" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="12" t="n">
+      <c r="D102" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E102" s="13" t="n">
+      <c r="E102" s="14" t="n">
         <v>12.58</v>
       </c>
-      <c r="F102" s="14" t="n">
+      <c r="F102" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="G102" s="15" t="n">
+      <c r="G102" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3302,22 +3480,22 @@
       <c r="A103" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B103" s="23" t="n">
+      <c r="B103" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="12" t="n">
+      <c r="D103" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E103" s="13" t="n">
+      <c r="E103" s="14" t="n">
         <v>12.33</v>
       </c>
-      <c r="F103" s="14" t="n">
+      <c r="F103" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G103" s="15" t="n">
+      <c r="G103" s="16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,22 +3503,22 @@
       <c r="A104" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B104" s="23" t="n">
+      <c r="B104" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="12" t="n">
+      <c r="D104" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E104" s="13" t="n">
+      <c r="E104" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F104" s="14" t="n">
+      <c r="F104" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="G104" s="15" t="n">
+      <c r="G104" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3348,22 +3526,22 @@
       <c r="A105" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B105" s="23" t="n">
+      <c r="B105" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="12" t="n">
+      <c r="D105" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E105" s="13" t="n">
+      <c r="E105" s="14" t="n">
         <v>11.13</v>
       </c>
-      <c r="F105" s="14" t="n">
+      <c r="F105" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G105" s="15" t="n">
+      <c r="G105" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3371,22 +3549,22 @@
       <c r="A106" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B106" s="23" t="n">
+      <c r="B106" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="12" t="n">
+      <c r="D106" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E106" s="13" t="n">
+      <c r="E106" s="14" t="n">
         <v>12.49</v>
       </c>
-      <c r="F106" s="14" t="n">
+      <c r="F106" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G106" s="15" t="n">
+      <c r="G106" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3394,22 +3572,22 @@
       <c r="A107" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B107" s="23" t="n">
+      <c r="B107" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="12" t="n">
+      <c r="D107" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E107" s="13" t="n">
+      <c r="E107" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F107" s="14" t="n">
+      <c r="F107" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G107" s="15" t="n">
+      <c r="G107" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3417,22 +3595,22 @@
       <c r="A108" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B108" s="23" t="n">
+      <c r="B108" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="12" t="n">
+      <c r="D108" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E108" s="13" t="n">
+      <c r="E108" s="14" t="n">
         <v>13.48</v>
       </c>
-      <c r="F108" s="14" t="n">
+      <c r="F108" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G108" s="15" t="n">
+      <c r="G108" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3440,22 +3618,22 @@
       <c r="A109" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B109" s="23" t="n">
+      <c r="B109" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="12" t="n">
+      <c r="D109" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E109" s="13" t="n">
+      <c r="E109" s="14" t="n">
         <v>13.48</v>
       </c>
-      <c r="F109" s="14" t="n">
+      <c r="F109" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G109" s="15" t="n">
+      <c r="G109" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3463,22 +3641,22 @@
       <c r="A110" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B110" s="23" t="n">
+      <c r="B110" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="12" t="n">
+      <c r="D110" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E110" s="13" t="n">
+      <c r="E110" s="14" t="n">
         <v>11.03</v>
       </c>
-      <c r="F110" s="14" t="n">
+      <c r="F110" s="15" t="n">
         <v>49</v>
       </c>
-      <c r="G110" s="15" t="n">
+      <c r="G110" s="16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3486,22 +3664,22 @@
       <c r="A111" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B111" s="23" t="n">
+      <c r="B111" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="12" t="n">
+      <c r="D111" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E111" s="13" t="n">
+      <c r="E111" s="14" t="n">
         <v>12.39</v>
       </c>
-      <c r="F111" s="14" t="n">
+      <c r="F111" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G111" s="15" t="n">
+      <c r="G111" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3509,22 +3687,22 @@
       <c r="A112" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B112" s="23" t="n">
+      <c r="B112" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C112" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="12" t="n">
+      <c r="D112" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E112" s="13" t="n">
+      <c r="E112" s="14" t="n">
         <v>13.21</v>
       </c>
-      <c r="F112" s="14" t="n">
+      <c r="F112" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G112" s="15" t="n">
+      <c r="G112" s="16" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3532,22 +3710,22 @@
       <c r="A113" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B113" s="23" t="n">
+      <c r="B113" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D113" s="12" t="n">
+      <c r="D113" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E113" s="13" t="n">
+      <c r="E113" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F113" s="14" t="n">
+      <c r="F113" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="G113" s="15" t="n">
+      <c r="G113" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3555,22 +3733,22 @@
       <c r="A114" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B114" s="23" t="n">
+      <c r="B114" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D114" s="12" t="n">
+      <c r="D114" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E114" s="13" t="n">
+      <c r="E114" s="14" t="n">
         <v>13.33</v>
       </c>
-      <c r="F114" s="14" t="n">
+      <c r="F114" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="G114" s="15" t="n">
+      <c r="G114" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3578,37 +3756,37 @@
       <c r="A115" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B115" s="23" t="n">
+      <c r="B115" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="15"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B116" s="23" t="n">
+      <c r="B116" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="12" t="n">
+      <c r="D116" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E116" s="13" t="n">
+      <c r="E116" s="14" t="n">
         <v>11.21</v>
       </c>
-      <c r="F116" s="14" t="n">
+      <c r="F116" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="G116" s="15" t="n">
+      <c r="G116" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3616,22 +3794,22 @@
       <c r="A117" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B117" s="23" t="n">
+      <c r="B117" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="12" t="n">
+      <c r="D117" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E117" s="13" t="n">
+      <c r="E117" s="14" t="n">
         <v>13.48</v>
       </c>
-      <c r="F117" s="14" t="n">
+      <c r="F117" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G117" s="15" t="n">
+      <c r="G117" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3639,22 +3817,22 @@
       <c r="A118" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B118" s="23" t="n">
+      <c r="B118" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D118" s="12" t="n">
+      <c r="D118" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E118" s="13" t="n">
+      <c r="E118" s="14" t="n">
         <v>13.07</v>
       </c>
-      <c r="F118" s="14" t="n">
+      <c r="F118" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="G118" s="15" t="n">
+      <c r="G118" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3662,22 +3840,22 @@
       <c r="A119" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B119" s="23" t="n">
+      <c r="B119" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="12" t="n">
+      <c r="D119" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E119" s="13" t="n">
+      <c r="E119" s="14" t="n">
         <v>13.4</v>
       </c>
-      <c r="F119" s="14" t="n">
+      <c r="F119" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G119" s="15" t="n">
+      <c r="G119" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3685,22 +3863,22 @@
       <c r="A120" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B120" s="23" t="n">
+      <c r="B120" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D120" s="12" t="n">
+      <c r="D120" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E120" s="13" t="n">
+      <c r="E120" s="14" t="n">
         <v>11.36</v>
       </c>
-      <c r="F120" s="14" t="n">
+      <c r="F120" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G120" s="15" t="n">
+      <c r="G120" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3708,22 +3886,22 @@
       <c r="A121" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B121" s="23" t="n">
+      <c r="B121" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D121" s="12" t="n">
+      <c r="D121" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E121" s="13" t="n">
+      <c r="E121" s="14" t="n">
         <v>11.29</v>
       </c>
-      <c r="F121" s="14" t="n">
+      <c r="F121" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G121" s="15" t="n">
+      <c r="G121" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3731,22 +3909,22 @@
       <c r="A122" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B122" s="23" t="n">
+      <c r="B122" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="12" t="n">
+      <c r="D122" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E122" s="13" t="n">
+      <c r="E122" s="14" t="n">
         <v>13.48</v>
       </c>
-      <c r="F122" s="14" t="n">
+      <c r="F122" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G122" s="15" t="n">
+      <c r="G122" s="16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3754,22 +3932,22 @@
       <c r="A123" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B123" s="23" t="n">
+      <c r="B123" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D123" s="12" t="n">
+      <c r="D123" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E123" s="13" t="n">
+      <c r="E123" s="14" t="n">
         <v>13.06</v>
       </c>
-      <c r="F123" s="14" t="n">
+      <c r="F123" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G123" s="15" t="n">
+      <c r="G123" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3777,22 +3955,22 @@
       <c r="A124" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B124" s="23" t="n">
+      <c r="B124" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D124" s="12" t="n">
+      <c r="D124" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E124" s="13" t="n">
+      <c r="E124" s="14" t="n">
         <v>12.2</v>
       </c>
-      <c r="F124" s="14" t="n">
+      <c r="F124" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G124" s="15" t="n">
+      <c r="G124" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3800,22 +3978,22 @@
       <c r="A125" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B125" s="23" t="n">
+      <c r="B125" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="12" t="n">
+      <c r="D125" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E125" s="13" t="n">
+      <c r="E125" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F125" s="14" t="n">
+      <c r="F125" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G125" s="15" t="n">
+      <c r="G125" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3823,22 +4001,22 @@
       <c r="A126" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B126" s="23" t="n">
+      <c r="B126" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D126" s="12" t="n">
+      <c r="D126" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="E126" s="13" t="n">
+      <c r="E126" s="14" t="n">
         <v>12.55</v>
       </c>
-      <c r="F126" s="14" t="n">
+      <c r="F126" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G126" s="15" t="n">
+      <c r="G126" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3846,22 +4024,22 @@
       <c r="A127" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B127" s="23" t="n">
+      <c r="B127" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D127" s="12" t="n">
+      <c r="D127" s="13" t="n">
         <v>66</v>
       </c>
-      <c r="E127" s="13" t="n">
+      <c r="E127" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F127" s="14" t="n">
+      <c r="F127" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G127" s="15" t="n">
+      <c r="G127" s="16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3869,22 +4047,22 @@
       <c r="A128" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B128" s="23" t="n">
+      <c r="B128" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C128" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D128" s="12" t="n">
+      <c r="D128" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="E128" s="13" t="n">
+      <c r="E128" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F128" s="14" t="n">
+      <c r="F128" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="G128" s="15" t="n">
+      <c r="G128" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3892,22 +4070,22 @@
       <c r="A129" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B129" s="23" t="n">
+      <c r="B129" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D129" s="12" t="n">
+      <c r="D129" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E129" s="13" t="n">
+      <c r="E129" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="F129" s="14" t="n">
+      <c r="F129" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="G129" s="15" t="n">
+      <c r="G129" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3915,22 +4093,22 @@
       <c r="A130" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B130" s="23" t="n">
+      <c r="B130" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D130" s="12" t="n">
+      <c r="D130" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E130" s="13" t="n">
+      <c r="E130" s="14" t="n">
         <v>13.09</v>
       </c>
-      <c r="F130" s="14" t="n">
+      <c r="F130" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="G130" s="15" t="n">
+      <c r="G130" s="16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,22 +4116,22 @@
       <c r="A131" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B131" s="23" t="n">
+      <c r="B131" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D131" s="12" t="n">
+      <c r="D131" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="E131" s="13" t="n">
+      <c r="E131" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F131" s="14" t="n">
+      <c r="F131" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="G131" s="15" t="n">
+      <c r="G131" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3961,41 +4139,41 @@
       <c r="A132" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B132" s="23" t="n">
+      <c r="B132" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="12" t="n">
+      <c r="D132" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="14" t="n">
+      <c r="E132" s="19"/>
+      <c r="F132" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G132" s="15"/>
+      <c r="G132" s="16"/>
     </row>
     <row r="133" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B133" s="23" t="n">
+      <c r="B133" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D133" s="12" t="n">
+      <c r="D133" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E133" s="13" t="n">
+      <c r="E133" s="14" t="n">
         <v>12.05</v>
       </c>
-      <c r="F133" s="14" t="n">
+      <c r="F133" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G133" s="15" t="n">
+      <c r="G133" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4003,22 +4181,22 @@
       <c r="A134" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B134" s="23" t="n">
+      <c r="B134" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D134" s="12" t="n">
+      <c r="D134" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E134" s="13" t="n">
+      <c r="E134" s="14" t="n">
         <v>12.2</v>
       </c>
-      <c r="F134" s="14" t="n">
+      <c r="F134" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="G134" s="15" t="n">
+      <c r="G134" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4026,22 +4204,22 @@
       <c r="A135" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B135" s="23" t="n">
+      <c r="B135" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D135" s="12" t="n">
+      <c r="D135" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E135" s="13" t="n">
+      <c r="E135" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F135" s="14" t="n">
+      <c r="F135" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G135" s="15" t="n">
+      <c r="G135" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4049,43 +4227,43 @@
       <c r="A136" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B136" s="23" t="n">
+      <c r="B136" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C136" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="12" t="n">
+      <c r="D136" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E136" s="13" t="n">
+      <c r="E136" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F136" s="14" t="n">
+      <c r="F136" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G136" s="15"/>
+      <c r="G136" s="16"/>
     </row>
     <row r="137" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B137" s="23" t="n">
+      <c r="B137" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D137" s="12" t="n">
+      <c r="D137" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E137" s="13" t="n">
+      <c r="E137" s="14" t="n">
         <v>13.08</v>
       </c>
-      <c r="F137" s="14" t="n">
+      <c r="F137" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="G137" s="15" t="n">
+      <c r="G137" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4093,22 +4271,22 @@
       <c r="A138" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B138" s="23" t="n">
+      <c r="B138" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D138" s="12" t="n">
+      <c r="D138" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E138" s="13" t="n">
+      <c r="E138" s="14" t="n">
         <v>11.44</v>
       </c>
-      <c r="F138" s="14" t="n">
+      <c r="F138" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="G138" s="15" t="n">
+      <c r="G138" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4116,22 +4294,22 @@
       <c r="A139" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B139" s="23" t="n">
+      <c r="B139" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="12" t="n">
+      <c r="D139" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="E139" s="13" t="n">
+      <c r="E139" s="14" t="n">
         <v>13.55</v>
       </c>
-      <c r="F139" s="14" t="n">
+      <c r="F139" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G139" s="15" t="n">
+      <c r="G139" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4139,37 +4317,37 @@
       <c r="A140" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B140" s="26" t="n">
+      <c r="B140" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="15"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16"/>
     </row>
     <row r="141" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B141" s="26" t="n">
+      <c r="B141" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D141" s="12" t="n">
+      <c r="D141" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E141" s="13" t="n">
+      <c r="E141" s="14" t="n">
         <v>13.5</v>
       </c>
-      <c r="F141" s="14" t="n">
+      <c r="F141" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G141" s="15" t="n">
+      <c r="G141" s="16" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4177,22 +4355,22 @@
       <c r="A142" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B142" s="26" t="n">
+      <c r="B142" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D142" s="12" t="n">
+      <c r="D142" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E142" s="13" t="n">
+      <c r="E142" s="14" t="n">
         <v>14.3</v>
       </c>
-      <c r="F142" s="14" t="n">
+      <c r="F142" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G142" s="15" t="n">
+      <c r="G142" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4200,41 +4378,41 @@
       <c r="A143" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B143" s="26" t="n">
+      <c r="B143" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D143" s="12" t="n">
+      <c r="D143" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E143" s="13" t="n">
+      <c r="E143" s="14" t="n">
         <v>14.5</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="16"/>
     </row>
     <row r="144" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B144" s="26" t="n">
+      <c r="B144" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D144" s="12" t="n">
+      <c r="D144" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E144" s="13" t="n">
+      <c r="E144" s="14" t="n">
         <v>12.18</v>
       </c>
-      <c r="F144" s="14" t="n">
+      <c r="F144" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G144" s="15" t="n">
+      <c r="G144" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4242,22 +4420,22 @@
       <c r="A145" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B145" s="26" t="n">
+      <c r="B145" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D145" s="12" t="n">
+      <c r="D145" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E145" s="13" t="n">
+      <c r="E145" s="14" t="n">
         <v>13.35</v>
       </c>
-      <c r="F145" s="14" t="n">
+      <c r="F145" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G145" s="15" t="n">
+      <c r="G145" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4265,22 +4443,22 @@
       <c r="A146" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B146" s="26" t="n">
+      <c r="B146" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D146" s="12" t="n">
+      <c r="D146" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E146" s="13" t="n">
+      <c r="E146" s="14" t="n">
         <v>12.36</v>
       </c>
-      <c r="F146" s="14" t="n">
+      <c r="F146" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="G146" s="15" t="n">
+      <c r="G146" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4288,22 +4466,22 @@
       <c r="A147" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B147" s="26" t="n">
+      <c r="B147" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D147" s="12" t="n">
+      <c r="D147" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="E147" s="13" t="n">
+      <c r="E147" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F147" s="14" t="n">
+      <c r="F147" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G147" s="15" t="n">
+      <c r="G147" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4311,22 +4489,22 @@
       <c r="A148" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B148" s="26" t="n">
+      <c r="B148" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D148" s="12" t="n">
+      <c r="D148" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="E148" s="13" t="n">
+      <c r="E148" s="14" t="n">
         <v>13.1</v>
       </c>
-      <c r="F148" s="14" t="n">
+      <c r="F148" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="G148" s="15" t="n">
+      <c r="G148" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4334,22 +4512,22 @@
       <c r="A149" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B149" s="26" t="n">
+      <c r="B149" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D149" s="12" t="n">
+      <c r="D149" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E149" s="13" t="n">
+      <c r="E149" s="14" t="n">
         <v>12.18</v>
       </c>
-      <c r="F149" s="14" t="n">
+      <c r="F149" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G149" s="15" t="n">
+      <c r="G149" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4357,22 +4535,22 @@
       <c r="A150" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B150" s="26" t="n">
+      <c r="B150" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D150" s="12" t="n">
+      <c r="D150" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="E150" s="13" t="n">
+      <c r="E150" s="14" t="n">
         <v>14.3</v>
       </c>
-      <c r="F150" s="14" t="n">
+      <c r="F150" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G150" s="15" t="n">
+      <c r="G150" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4380,22 +4558,22 @@
       <c r="A151" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B151" s="26" t="n">
+      <c r="B151" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="12" t="n">
+      <c r="D151" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="E151" s="13" t="n">
+      <c r="E151" s="14" t="n">
         <v>13.17</v>
       </c>
-      <c r="F151" s="14" t="n">
+      <c r="F151" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="G151" s="15" t="n">
+      <c r="G151" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4403,22 +4581,22 @@
       <c r="A152" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B152" s="26" t="n">
+      <c r="B152" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D152" s="12" t="n">
+      <c r="D152" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="E152" s="13" t="n">
+      <c r="E152" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F152" s="14" t="n">
+      <c r="F152" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G152" s="15" t="n">
+      <c r="G152" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4426,22 +4604,22 @@
       <c r="A153" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B153" s="26" t="n">
+      <c r="B153" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D153" s="12" t="n">
+      <c r="D153" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E153" s="13" t="n">
+      <c r="E153" s="14" t="n">
         <v>14.3</v>
       </c>
-      <c r="F153" s="14" t="n">
+      <c r="F153" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G153" s="15" t="n">
+      <c r="G153" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4449,22 +4627,22 @@
       <c r="A154" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B154" s="26" t="n">
+      <c r="B154" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D154" s="12" t="n">
+      <c r="D154" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E154" s="13" t="n">
+      <c r="E154" s="14" t="n">
         <v>11.3</v>
       </c>
-      <c r="F154" s="14" t="n">
+      <c r="F154" s="15" t="n">
         <v>52</v>
       </c>
-      <c r="G154" s="15" t="n">
+      <c r="G154" s="16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4472,22 +4650,22 @@
       <c r="A155" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B155" s="26" t="n">
+      <c r="B155" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="12" t="n">
+      <c r="D155" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E155" s="13" t="n">
+      <c r="E155" s="14" t="n">
         <v>13.2</v>
       </c>
-      <c r="F155" s="14" t="n">
+      <c r="F155" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G155" s="15" t="n">
+      <c r="G155" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4495,22 +4673,22 @@
       <c r="A156" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B156" s="26" t="n">
+      <c r="B156" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D156" s="12" t="n">
+      <c r="D156" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E156" s="13" t="n">
+      <c r="E156" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="F156" s="14" t="n">
+      <c r="F156" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G156" s="15" t="n">
+      <c r="G156" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4518,22 +4696,22 @@
       <c r="A157" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B157" s="26" t="n">
+      <c r="B157" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D157" s="12" t="n">
+      <c r="D157" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E157" s="13" t="n">
+      <c r="E157" s="14" t="n">
         <v>13.58</v>
       </c>
-      <c r="F157" s="14" t="n">
+      <c r="F157" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G157" s="15" t="n">
+      <c r="G157" s="16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4541,22 +4719,22 @@
       <c r="A158" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B158" s="26" t="n">
+      <c r="B158" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C158" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D158" s="12" t="n">
+      <c r="D158" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E158" s="13" t="n">
+      <c r="E158" s="14" t="n">
         <v>12.43</v>
       </c>
-      <c r="F158" s="14" t="n">
+      <c r="F158" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G158" s="15" t="n">
+      <c r="G158" s="16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4564,22 +4742,22 @@
       <c r="A159" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B159" s="26" t="n">
+      <c r="B159" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D159" s="12" t="n">
+      <c r="D159" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="E159" s="13" t="n">
+      <c r="E159" s="14" t="n">
         <v>14.5</v>
       </c>
-      <c r="F159" s="14" t="n">
+      <c r="F159" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G159" s="15" t="n">
+      <c r="G159" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4587,22 +4765,22 @@
       <c r="A160" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B160" s="26" t="n">
+      <c r="B160" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D160" s="12" t="n">
+      <c r="D160" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E160" s="13" t="n">
+      <c r="E160" s="14" t="n">
         <v>14.5</v>
       </c>
-      <c r="F160" s="14" t="n">
+      <c r="F160" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G160" s="15" t="n">
+      <c r="G160" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4610,22 +4788,22 @@
       <c r="A161" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B161" s="26" t="n">
+      <c r="B161" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D161" s="12" t="n">
+      <c r="D161" s="13" t="n">
         <v>45</v>
       </c>
-      <c r="E161" s="13" t="n">
+      <c r="E161" s="14" t="n">
         <v>14.3</v>
       </c>
-      <c r="F161" s="14" t="n">
+      <c r="F161" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G161" s="15" t="n">
+      <c r="G161" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4633,22 +4811,22 @@
       <c r="A162" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B162" s="26" t="n">
+      <c r="B162" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D162" s="12" t="n">
+      <c r="D162" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E162" s="13" t="n">
+      <c r="E162" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F162" s="14" t="n">
+      <c r="F162" s="15" t="n">
         <v>48</v>
       </c>
-      <c r="G162" s="15" t="n">
+      <c r="G162" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4656,22 +4834,22 @@
       <c r="A163" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B163" s="26" t="n">
+      <c r="B163" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C163" s="27" t="s">
+      <c r="C163" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D163" s="12" t="n">
+      <c r="D163" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="E163" s="13" t="n">
+      <c r="E163" s="14" t="n">
         <v>13.45</v>
       </c>
-      <c r="F163" s="14" t="n">
+      <c r="F163" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G163" s="15" t="n">
+      <c r="G163" s="16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4679,22 +4857,22 @@
       <c r="A164" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B164" s="26" t="n">
+      <c r="B164" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C164" s="27" t="s">
+      <c r="C164" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D164" s="12" t="n">
+      <c r="D164" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E164" s="13" t="n">
+      <c r="E164" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F164" s="14" t="n">
+      <c r="F164" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G164" s="15" t="n">
+      <c r="G164" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4702,22 +4880,22 @@
       <c r="A165" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B165" s="26" t="n">
+      <c r="B165" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D165" s="12" t="n">
+      <c r="D165" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E165" s="13" t="n">
+      <c r="E165" s="14" t="n">
         <v>14.3</v>
       </c>
-      <c r="F165" s="14" t="n">
+      <c r="F165" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G165" s="15" t="n">
+      <c r="G165" s="16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4725,22 +4903,22 @@
       <c r="A166" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B166" s="26" t="n">
+      <c r="B166" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D166" s="12" t="n">
+      <c r="D166" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="E166" s="13" t="n">
+      <c r="E166" s="14" t="n">
         <v>13.5</v>
       </c>
-      <c r="F166" s="14" t="n">
+      <c r="F166" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G166" s="15" t="n">
+      <c r="G166" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4748,22 +4926,22 @@
       <c r="A167" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B167" s="26" t="n">
+      <c r="B167" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D167" s="12" t="n">
+      <c r="D167" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E167" s="13" t="n">
+      <c r="E167" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="F167" s="14" t="n">
+      <c r="F167" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="G167" s="15" t="n">
+      <c r="G167" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4771,68 +4949,60 @@
       <c r="A168" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B168" s="26" t="n">
+      <c r="B168" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="D168" s="12" t="n">
+      <c r="D168" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E168" s="13" t="n">
+      <c r="E168" s="14" t="n">
         <v>11.3</v>
       </c>
-      <c r="F168" s="14" t="n">
+      <c r="F168" s="15" t="n">
         <v>53</v>
       </c>
-      <c r="G168" s="15" t="n">
+      <c r="G168" s="16" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B169" s="26" t="n">
+      <c r="B169" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C169" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D169" s="12" t="n">
-        <v>53</v>
-      </c>
-      <c r="E169" s="13" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F169" s="14" t="n">
-        <v>35</v>
-      </c>
-      <c r="G169" s="15" t="n">
-        <v>9</v>
-      </c>
+      <c r="D169" s="13"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="16"/>
     </row>
     <row r="170" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B170" s="26" t="n">
+      <c r="B170" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D170" s="12" t="n">
+      <c r="D170" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="E170" s="13" t="n">
+      <c r="E170" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F170" s="14" t="n">
+      <c r="F170" s="15" t="n">
         <v>52</v>
       </c>
-      <c r="G170" s="15" t="n">
+      <c r="G170" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4840,22 +5010,22 @@
       <c r="A171" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B171" s="26" t="n">
+      <c r="B171" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D171" s="12" t="n">
+      <c r="D171" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E171" s="13" t="n">
+      <c r="E171" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F171" s="14" t="n">
+      <c r="F171" s="15" t="n">
         <v>60</v>
       </c>
-      <c r="G171" s="15" t="n">
+      <c r="G171" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4863,22 +5033,22 @@
       <c r="A172" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B172" s="26" t="n">
+      <c r="B172" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D172" s="12" t="n">
+      <c r="D172" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E172" s="13" t="n">
+      <c r="E172" s="14" t="n">
         <v>14.5</v>
       </c>
-      <c r="F172" s="14" t="n">
+      <c r="F172" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G172" s="15" t="n">
+      <c r="G172" s="16" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4886,22 +5056,22 @@
       <c r="A173" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B173" s="26" t="n">
+      <c r="B173" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C173" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D173" s="12" t="n">
+      <c r="D173" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E173" s="13" t="n">
+      <c r="E173" s="14" t="n">
         <v>13.58</v>
       </c>
-      <c r="F173" s="14" t="n">
+      <c r="F173" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G173" s="15" t="n">
+      <c r="G173" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4909,22 +5079,22 @@
       <c r="A174" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B174" s="26" t="n">
+      <c r="B174" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D174" s="12" t="n">
+      <c r="D174" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="E174" s="13" t="n">
+      <c r="E174" s="14" t="n">
         <v>13.5</v>
       </c>
-      <c r="F174" s="14" t="n">
+      <c r="F174" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="G174" s="15" t="n">
+      <c r="G174" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4932,20 +5102,20 @@
       <c r="A175" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B175" s="26" t="n">
+      <c r="B175" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C175" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D175" s="12"/>
-      <c r="E175" s="13" t="n">
+      <c r="D175" s="13"/>
+      <c r="E175" s="14" t="n">
         <v>13.5</v>
       </c>
-      <c r="F175" s="14" t="n">
+      <c r="F175" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G175" s="15" t="n">
+      <c r="G175" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4953,22 +5123,22 @@
       <c r="A176" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B176" s="26" t="n">
+      <c r="B176" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D176" s="12" t="n">
+      <c r="D176" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="E176" s="13" t="n">
+      <c r="E176" s="14" t="n">
         <v>13.5</v>
       </c>
-      <c r="F176" s="14" t="n">
+      <c r="F176" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G176" s="15" t="n">
+      <c r="G176" s="16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4976,22 +5146,22 @@
       <c r="A177" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B177" s="26" t="n">
+      <c r="B177" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="12" t="n">
+      <c r="D177" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E177" s="13" t="n">
+      <c r="E177" s="14" t="n">
         <v>14.5</v>
       </c>
-      <c r="F177" s="14" t="n">
+      <c r="F177" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="G177" s="15" t="n">
+      <c r="G177" s="16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4999,22 +5169,22 @@
       <c r="A178" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B178" s="26" t="n">
+      <c r="B178" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C178" s="27" t="s">
+      <c r="C178" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="12" t="n">
+      <c r="D178" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E178" s="13" t="n">
+      <c r="E178" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F178" s="14" t="n">
+      <c r="F178" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G178" s="15" t="n">
+      <c r="G178" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5022,22 +5192,22 @@
       <c r="A179" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B179" s="26" t="n">
+      <c r="B179" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D179" s="12" t="n">
+      <c r="D179" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="E179" s="13" t="n">
+      <c r="E179" s="14" t="n">
         <v>12.5</v>
       </c>
-      <c r="F179" s="14" t="n">
+      <c r="F179" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G179" s="15" t="n">
+      <c r="G179" s="16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5045,22 +5215,22 @@
       <c r="A180" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B180" s="26" t="n">
+      <c r="B180" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D180" s="12" t="n">
+      <c r="D180" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E180" s="13" t="n">
+      <c r="E180" s="14" t="n">
         <v>14.2</v>
       </c>
-      <c r="F180" s="14" t="n">
+      <c r="F180" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="G180" s="15" t="n">
+      <c r="G180" s="16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5068,22 +5238,22 @@
       <c r="A181" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B181" s="26" t="n">
+      <c r="B181" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="D181" s="12" t="n">
+      <c r="D181" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="E181" s="13" t="n">
+      <c r="E181" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F181" s="14" t="n">
+      <c r="F181" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="G181" s="15" t="n">
+      <c r="G181" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5091,22 +5261,22 @@
       <c r="A182" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B182" s="26" t="n">
+      <c r="B182" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C182" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D182" s="12" t="n">
+      <c r="D182" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E182" s="13" t="n">
+      <c r="E182" s="14" t="n">
         <v>12.45</v>
       </c>
-      <c r="F182" s="14" t="n">
+      <c r="F182" s="15" t="n">
         <v>55</v>
       </c>
-      <c r="G182" s="15" t="n">
+      <c r="G182" s="16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5114,22 +5284,22 @@
       <c r="A183" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B183" s="26" t="n">
+      <c r="B183" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C183" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D183" s="12" t="n">
+      <c r="D183" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="E183" s="13" t="n">
+      <c r="E183" s="14" t="n">
         <v>13.4</v>
       </c>
-      <c r="F183" s="14" t="n">
+      <c r="F183" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="G183" s="15" t="n">
+      <c r="G183" s="16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5137,26 +5307,27 @@
       <c r="A184" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="B184" s="26" t="n">
+      <c r="B184" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D184" s="12" t="n">
+      <c r="D184" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E184" s="13" t="n">
+      <c r="E184" s="14" t="n">
         <v>14.3</v>
       </c>
-      <c r="F184" s="14" t="n">
+      <c r="F184" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="G184" s="15" t="n">
+      <c r="G184" s="16" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G184"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5164,5 +5335,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>